--- a/data/XPR.MI.xlsx
+++ b/data/XPR.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="1030">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="1031">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3102,6 +3102,9 @@
   </si>
   <si>
     <t xml:space="preserve">1.63499999046326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65499997138977</t>
   </si>
 </sst>
 </file>
@@ -59135,7 +59138,7 @@
     </row>
     <row r="2143">
       <c r="A2143" s="1" t="n">
-        <v>45446.6414467593</v>
+        <v>45446.2916666667</v>
       </c>
       <c r="B2143" t="n">
         <v>146</v>
@@ -59156,6 +59159,32 @@
         <v>877</v>
       </c>
       <c r="H2143" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2144">
+      <c r="A2144" s="1" t="n">
+        <v>45447.602974537</v>
+      </c>
+      <c r="B2144" t="n">
+        <v>22785</v>
+      </c>
+      <c r="C2144" t="n">
+        <v>1.70000004768372</v>
+      </c>
+      <c r="D2144" t="n">
+        <v>1.63999998569489</v>
+      </c>
+      <c r="E2144" t="n">
+        <v>1.63999998569489</v>
+      </c>
+      <c r="F2144" t="n">
+        <v>1.65499997138977</v>
+      </c>
+      <c r="G2144" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H2144" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/XPR.MI.xlsx
+++ b/data/XPR.MI.xlsx
@@ -59164,7 +59164,7 @@
     </row>
     <row r="2144">
       <c r="A2144" s="1" t="n">
-        <v>45447.602974537</v>
+        <v>45447.2916666667</v>
       </c>
       <c r="B2144" t="n">
         <v>22785</v>
@@ -59185,6 +59185,32 @@
         <v>1030</v>
       </c>
       <c r="H2144" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2145">
+      <c r="A2145" s="1" t="n">
+        <v>45448.5571759259</v>
+      </c>
+      <c r="B2145" t="n">
+        <v>82036</v>
+      </c>
+      <c r="C2145" t="n">
+        <v>1.72500002384186</v>
+      </c>
+      <c r="D2145" t="n">
+        <v>1.67499995231628</v>
+      </c>
+      <c r="E2145" t="n">
+        <v>1.70000004768372</v>
+      </c>
+      <c r="F2145" t="n">
+        <v>1.69000005722046</v>
+      </c>
+      <c r="G2145" t="s">
+        <v>873</v>
+      </c>
+      <c r="H2145" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/XPR.MI.xlsx
+++ b/data/XPR.MI.xlsx
@@ -59190,7 +59190,7 @@
     </row>
     <row r="2145">
       <c r="A2145" s="1" t="n">
-        <v>45448.5571759259</v>
+        <v>45448.2916666667</v>
       </c>
       <c r="B2145" t="n">
         <v>82036</v>
@@ -59211,6 +59211,32 @@
         <v>873</v>
       </c>
       <c r="H2145" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2146">
+      <c r="A2146" s="1" t="n">
+        <v>45449.5432638889</v>
+      </c>
+      <c r="B2146" t="n">
+        <v>67927</v>
+      </c>
+      <c r="C2146" t="n">
+        <v>1.72500002384186</v>
+      </c>
+      <c r="D2146" t="n">
+        <v>1.69000005722046</v>
+      </c>
+      <c r="E2146" t="n">
+        <v>1.69000005722046</v>
+      </c>
+      <c r="F2146" t="n">
+        <v>1.69000005722046</v>
+      </c>
+      <c r="G2146" t="s">
+        <v>873</v>
+      </c>
+      <c r="H2146" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/XPR.MI.xlsx
+++ b/data/XPR.MI.xlsx
@@ -50,7 +50,7 @@
     <t xml:space="preserve">0.699284732341766</t>
   </si>
   <si>
-    <t xml:space="preserve">0.687000036239624</t>
+    <t xml:space="preserve">0.686999976634979</t>
   </si>
   <si>
     <t xml:space="preserve">0.677550196647644</t>
@@ -59,13 +59,13 @@
     <t xml:space="preserve">0.683692574501038</t>
   </si>
   <si>
-    <t xml:space="preserve">0.685110032558441</t>
+    <t xml:space="preserve">0.685110092163086</t>
   </si>
   <si>
     <t xml:space="preserve">0.693614900112152</t>
   </si>
   <si>
-    <t xml:space="preserve">0.67613273859024</t>
+    <t xml:space="preserve">0.676132678985596</t>
   </si>
   <si>
     <t xml:space="preserve">0.649673283100128</t>
@@ -74,10 +74,10 @@
     <t xml:space="preserve">0.635026097297668</t>
   </si>
   <si>
-    <t xml:space="preserve">0.666210412979126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.660068094730377</t>
+    <t xml:space="preserve">0.666210472583771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.660068035125732</t>
   </si>
   <si>
     <t xml:space="preserve">0.65770560503006</t>
@@ -95,10 +95,10 @@
     <t xml:space="preserve">0.694087326526642</t>
   </si>
   <si>
-    <t xml:space="preserve">0.684165000915527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.679912626743317</t>
+    <t xml:space="preserve">0.684165060520172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.679912686347961</t>
   </si>
   <si>
     <t xml:space="preserve">0.67235279083252</t>
@@ -110,10 +110,10 @@
     <t xml:space="preserve">0.661485552787781</t>
   </si>
   <si>
-    <t xml:space="preserve">0.623686373233795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.624631345272064</t>
+    <t xml:space="preserve">0.62368643283844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.624631404876709</t>
   </si>
   <si>
     <t xml:space="preserve">0.632663667201996</t>
@@ -125,10 +125,10 @@
     <t xml:space="preserve">0.57596492767334</t>
   </si>
   <si>
-    <t xml:space="preserve">0.58068984746933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.598644435405731</t>
+    <t xml:space="preserve">0.580689787864685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.598644375801086</t>
   </si>
   <si>
     <t xml:space="preserve">0.606676757335663</t>
@@ -155,7 +155,7 @@
     <t xml:space="preserve">0.718184292316437</t>
   </si>
   <si>
-    <t xml:space="preserve">0.728106617927551</t>
+    <t xml:space="preserve">0.728106558322906</t>
   </si>
   <si>
     <t xml:space="preserve">0.713459372520447</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">0.729524075984955</t>
   </si>
   <si>
-    <t xml:space="preserve">0.737083911895752</t>
+    <t xml:space="preserve">0.737083852291107</t>
   </si>
   <si>
     <t xml:space="preserve">0.735666453838348</t>
@@ -173,40 +173,40 @@
     <t xml:space="preserve">0.7342489361763</t>
   </si>
   <si>
-    <t xml:space="preserve">0.759290874004364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.770158112049103</t>
+    <t xml:space="preserve">0.759290933609009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.770158171653748</t>
   </si>
   <si>
     <t xml:space="preserve">0.755983471870422</t>
   </si>
   <si>
-    <t xml:space="preserve">0.727161645889282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.699757218360901</t>
+    <t xml:space="preserve">0.727161586284637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.699757158756256</t>
   </si>
   <si>
     <t xml:space="preserve">0.701174676418304</t>
   </si>
   <si>
-    <t xml:space="preserve">0.708734512329102</t>
+    <t xml:space="preserve">0.708734452724457</t>
   </si>
   <si>
     <t xml:space="preserve">0.724799156188965</t>
   </si>
   <si>
-    <t xml:space="preserve">0.732358992099762</t>
+    <t xml:space="preserve">0.732358932495117</t>
   </si>
   <si>
     <t xml:space="preserve">0.732831478118896</t>
   </si>
   <si>
-    <t xml:space="preserve">0.735193908214569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.730468988418579</t>
+    <t xml:space="preserve">0.735193967819214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.730469048023224</t>
   </si>
   <si>
     <t xml:space="preserve">0.74369877576828</t>
@@ -215,16 +215,16 @@
     <t xml:space="preserve">0.727634072303772</t>
   </si>
   <si>
-    <t xml:space="preserve">0.720074236392975</t>
+    <t xml:space="preserve">0.72007429599762</t>
   </si>
   <si>
     <t xml:space="preserve">0.725744128227234</t>
   </si>
   <si>
-    <t xml:space="preserve">0.722909212112427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.725271582603455</t>
+    <t xml:space="preserve">0.722909152507782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.725271642208099</t>
   </si>
   <si>
     <t xml:space="preserve">0.723381698131561</t>
@@ -59216,7 +59216,7 @@
     </row>
     <row r="2146">
       <c r="A2146" s="1" t="n">
-        <v>45449.5432638889</v>
+        <v>45449.2916666667</v>
       </c>
       <c r="B2146" t="n">
         <v>67927</v>
@@ -59237,6 +59237,32 @@
         <v>873</v>
       </c>
       <c r="H2146" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2147">
+      <c r="A2147" s="1" t="n">
+        <v>45450.4396759259</v>
+      </c>
+      <c r="B2147" t="n">
+        <v>58021</v>
+      </c>
+      <c r="C2147" t="n">
+        <v>1.72500002384186</v>
+      </c>
+      <c r="D2147" t="n">
+        <v>1.70000004768372</v>
+      </c>
+      <c r="E2147" t="n">
+        <v>1.72000002861023</v>
+      </c>
+      <c r="F2147" t="n">
+        <v>1.70000004768372</v>
+      </c>
+      <c r="G2147" t="s">
+        <v>1020</v>
+      </c>
+      <c r="H2147" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/XPR.MI.xlsx
+++ b/data/XPR.MI.xlsx
@@ -50,7 +50,7 @@
     <t xml:space="preserve">0.699284732341766</t>
   </si>
   <si>
-    <t xml:space="preserve">0.686999976634979</t>
+    <t xml:space="preserve">0.687000036239624</t>
   </si>
   <si>
     <t xml:space="preserve">0.677550196647644</t>
@@ -59,13 +59,13 @@
     <t xml:space="preserve">0.683692574501038</t>
   </si>
   <si>
-    <t xml:space="preserve">0.685110092163086</t>
+    <t xml:space="preserve">0.685110032558441</t>
   </si>
   <si>
     <t xml:space="preserve">0.693614900112152</t>
   </si>
   <si>
-    <t xml:space="preserve">0.676132678985596</t>
+    <t xml:space="preserve">0.67613273859024</t>
   </si>
   <si>
     <t xml:space="preserve">0.649673283100128</t>
@@ -74,10 +74,10 @@
     <t xml:space="preserve">0.635026097297668</t>
   </si>
   <si>
-    <t xml:space="preserve">0.666210472583771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.660068035125732</t>
+    <t xml:space="preserve">0.666210412979126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.660068094730377</t>
   </si>
   <si>
     <t xml:space="preserve">0.65770560503006</t>
@@ -95,10 +95,10 @@
     <t xml:space="preserve">0.694087326526642</t>
   </si>
   <si>
-    <t xml:space="preserve">0.684165060520172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.679912686347961</t>
+    <t xml:space="preserve">0.684165000915527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.679912626743317</t>
   </si>
   <si>
     <t xml:space="preserve">0.67235279083252</t>
@@ -110,10 +110,10 @@
     <t xml:space="preserve">0.661485552787781</t>
   </si>
   <si>
-    <t xml:space="preserve">0.62368643283844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.624631404876709</t>
+    <t xml:space="preserve">0.623686373233795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.624631345272064</t>
   </si>
   <si>
     <t xml:space="preserve">0.632663667201996</t>
@@ -125,10 +125,10 @@
     <t xml:space="preserve">0.57596492767334</t>
   </si>
   <si>
-    <t xml:space="preserve">0.580689787864685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.598644375801086</t>
+    <t xml:space="preserve">0.58068984746933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.598644435405731</t>
   </si>
   <si>
     <t xml:space="preserve">0.606676757335663</t>
@@ -155,7 +155,7 @@
     <t xml:space="preserve">0.718184292316437</t>
   </si>
   <si>
-    <t xml:space="preserve">0.728106558322906</t>
+    <t xml:space="preserve">0.728106617927551</t>
   </si>
   <si>
     <t xml:space="preserve">0.713459372520447</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">0.729524075984955</t>
   </si>
   <si>
-    <t xml:space="preserve">0.737083852291107</t>
+    <t xml:space="preserve">0.737083911895752</t>
   </si>
   <si>
     <t xml:space="preserve">0.735666453838348</t>
@@ -173,40 +173,40 @@
     <t xml:space="preserve">0.7342489361763</t>
   </si>
   <si>
-    <t xml:space="preserve">0.759290933609009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.770158171653748</t>
+    <t xml:space="preserve">0.759290874004364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.770158112049103</t>
   </si>
   <si>
     <t xml:space="preserve">0.755983471870422</t>
   </si>
   <si>
-    <t xml:space="preserve">0.727161586284637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.699757158756256</t>
+    <t xml:space="preserve">0.727161645889282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.699757218360901</t>
   </si>
   <si>
     <t xml:space="preserve">0.701174676418304</t>
   </si>
   <si>
-    <t xml:space="preserve">0.708734452724457</t>
+    <t xml:space="preserve">0.708734512329102</t>
   </si>
   <si>
     <t xml:space="preserve">0.724799156188965</t>
   </si>
   <si>
-    <t xml:space="preserve">0.732358932495117</t>
+    <t xml:space="preserve">0.732358992099762</t>
   </si>
   <si>
     <t xml:space="preserve">0.732831478118896</t>
   </si>
   <si>
-    <t xml:space="preserve">0.735193967819214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.730469048023224</t>
+    <t xml:space="preserve">0.735193908214569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.730468988418579</t>
   </si>
   <si>
     <t xml:space="preserve">0.74369877576828</t>
@@ -215,16 +215,16 @@
     <t xml:space="preserve">0.727634072303772</t>
   </si>
   <si>
-    <t xml:space="preserve">0.72007429599762</t>
+    <t xml:space="preserve">0.720074236392975</t>
   </si>
   <si>
     <t xml:space="preserve">0.725744128227234</t>
   </si>
   <si>
-    <t xml:space="preserve">0.722909152507782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.725271642208099</t>
+    <t xml:space="preserve">0.722909212112427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.725271582603455</t>
   </si>
   <si>
     <t xml:space="preserve">0.723381698131561</t>
@@ -59242,7 +59242,7 @@
     </row>
     <row r="2147">
       <c r="A2147" s="1" t="n">
-        <v>45450.4396759259</v>
+        <v>45450.2916666667</v>
       </c>
       <c r="B2147" t="n">
         <v>58021</v>
@@ -59263,6 +59263,32 @@
         <v>1020</v>
       </c>
       <c r="H2147" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2148">
+      <c r="A2148" s="1" t="n">
+        <v>45453.5675</v>
+      </c>
+      <c r="B2148" t="n">
+        <v>50000</v>
+      </c>
+      <c r="C2148" t="n">
+        <v>1.72500002384186</v>
+      </c>
+      <c r="D2148" t="n">
+        <v>1.72500002384186</v>
+      </c>
+      <c r="E2148" t="n">
+        <v>1.72500002384186</v>
+      </c>
+      <c r="F2148" t="n">
+        <v>1.72500002384186</v>
+      </c>
+      <c r="G2148" t="s">
+        <v>1021</v>
+      </c>
+      <c r="H2148" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/XPR.MI.xlsx
+++ b/data/XPR.MI.xlsx
@@ -59268,7 +59268,7 @@
     </row>
     <row r="2148">
       <c r="A2148" s="1" t="n">
-        <v>45453.5675</v>
+        <v>45453.2916666667</v>
       </c>
       <c r="B2148" t="n">
         <v>50000</v>
@@ -59289,6 +59289,32 @@
         <v>1021</v>
       </c>
       <c r="H2148" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2149">
+      <c r="A2149" s="1" t="n">
+        <v>45455.6493287037</v>
+      </c>
+      <c r="B2149" t="n">
+        <v>1400</v>
+      </c>
+      <c r="C2149" t="n">
+        <v>1.69000005722046</v>
+      </c>
+      <c r="D2149" t="n">
+        <v>1.67499995231628</v>
+      </c>
+      <c r="E2149" t="n">
+        <v>1.69000005722046</v>
+      </c>
+      <c r="F2149" t="n">
+        <v>1.67499995231628</v>
+      </c>
+      <c r="G2149" t="s">
+        <v>1017</v>
+      </c>
+      <c r="H2149" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/XPR.MI.xlsx
+++ b/data/XPR.MI.xlsx
@@ -50,7 +50,7 @@
     <t xml:space="preserve">0.699284732341766</t>
   </si>
   <si>
-    <t xml:space="preserve">0.687000036239624</t>
+    <t xml:space="preserve">0.686999976634979</t>
   </si>
   <si>
     <t xml:space="preserve">0.677550196647644</t>
@@ -59,13 +59,13 @@
     <t xml:space="preserve">0.683692574501038</t>
   </si>
   <si>
-    <t xml:space="preserve">0.685110032558441</t>
+    <t xml:space="preserve">0.685110092163086</t>
   </si>
   <si>
     <t xml:space="preserve">0.693614900112152</t>
   </si>
   <si>
-    <t xml:space="preserve">0.67613273859024</t>
+    <t xml:space="preserve">0.676132678985596</t>
   </si>
   <si>
     <t xml:space="preserve">0.649673283100128</t>
@@ -74,10 +74,10 @@
     <t xml:space="preserve">0.635026097297668</t>
   </si>
   <si>
-    <t xml:space="preserve">0.666210412979126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.660068094730377</t>
+    <t xml:space="preserve">0.666210472583771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.660068035125732</t>
   </si>
   <si>
     <t xml:space="preserve">0.65770560503006</t>
@@ -95,10 +95,10 @@
     <t xml:space="preserve">0.694087326526642</t>
   </si>
   <si>
-    <t xml:space="preserve">0.684165000915527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.679912626743317</t>
+    <t xml:space="preserve">0.684165060520172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.679912686347961</t>
   </si>
   <si>
     <t xml:space="preserve">0.67235279083252</t>
@@ -110,10 +110,10 @@
     <t xml:space="preserve">0.661485552787781</t>
   </si>
   <si>
-    <t xml:space="preserve">0.623686373233795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.624631345272064</t>
+    <t xml:space="preserve">0.62368643283844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.624631404876709</t>
   </si>
   <si>
     <t xml:space="preserve">0.632663667201996</t>
@@ -125,10 +125,10 @@
     <t xml:space="preserve">0.57596492767334</t>
   </si>
   <si>
-    <t xml:space="preserve">0.58068984746933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.598644435405731</t>
+    <t xml:space="preserve">0.580689787864685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.598644375801086</t>
   </si>
   <si>
     <t xml:space="preserve">0.606676757335663</t>
@@ -155,7 +155,7 @@
     <t xml:space="preserve">0.718184292316437</t>
   </si>
   <si>
-    <t xml:space="preserve">0.728106617927551</t>
+    <t xml:space="preserve">0.728106558322906</t>
   </si>
   <si>
     <t xml:space="preserve">0.713459372520447</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">0.729524075984955</t>
   </si>
   <si>
-    <t xml:space="preserve">0.737083911895752</t>
+    <t xml:space="preserve">0.737083852291107</t>
   </si>
   <si>
     <t xml:space="preserve">0.735666453838348</t>
@@ -173,40 +173,40 @@
     <t xml:space="preserve">0.7342489361763</t>
   </si>
   <si>
-    <t xml:space="preserve">0.759290874004364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.770158112049103</t>
+    <t xml:space="preserve">0.759290933609009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.770158171653748</t>
   </si>
   <si>
     <t xml:space="preserve">0.755983471870422</t>
   </si>
   <si>
-    <t xml:space="preserve">0.727161645889282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.699757218360901</t>
+    <t xml:space="preserve">0.727161586284637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.699757158756256</t>
   </si>
   <si>
     <t xml:space="preserve">0.701174676418304</t>
   </si>
   <si>
-    <t xml:space="preserve">0.708734512329102</t>
+    <t xml:space="preserve">0.708734452724457</t>
   </si>
   <si>
     <t xml:space="preserve">0.724799156188965</t>
   </si>
   <si>
-    <t xml:space="preserve">0.732358992099762</t>
+    <t xml:space="preserve">0.732358932495117</t>
   </si>
   <si>
     <t xml:space="preserve">0.732831478118896</t>
   </si>
   <si>
-    <t xml:space="preserve">0.735193908214569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.730468988418579</t>
+    <t xml:space="preserve">0.735193967819214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.730469048023224</t>
   </si>
   <si>
     <t xml:space="preserve">0.74369877576828</t>
@@ -215,16 +215,16 @@
     <t xml:space="preserve">0.727634072303772</t>
   </si>
   <si>
-    <t xml:space="preserve">0.720074236392975</t>
+    <t xml:space="preserve">0.72007429599762</t>
   </si>
   <si>
     <t xml:space="preserve">0.725744128227234</t>
   </si>
   <si>
-    <t xml:space="preserve">0.722909212112427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.725271582603455</t>
+    <t xml:space="preserve">0.722909152507782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.725271642208099</t>
   </si>
   <si>
     <t xml:space="preserve">0.723381698131561</t>

--- a/data/XPR.MI.xlsx
+++ b/data/XPR.MI.xlsx
@@ -50,7 +50,7 @@
     <t xml:space="preserve">0.699284732341766</t>
   </si>
   <si>
-    <t xml:space="preserve">0.686999976634979</t>
+    <t xml:space="preserve">0.687000036239624</t>
   </si>
   <si>
     <t xml:space="preserve">0.677550196647644</t>
@@ -59,13 +59,13 @@
     <t xml:space="preserve">0.683692574501038</t>
   </si>
   <si>
-    <t xml:space="preserve">0.685110092163086</t>
+    <t xml:space="preserve">0.685110032558441</t>
   </si>
   <si>
     <t xml:space="preserve">0.693614900112152</t>
   </si>
   <si>
-    <t xml:space="preserve">0.676132678985596</t>
+    <t xml:space="preserve">0.67613273859024</t>
   </si>
   <si>
     <t xml:space="preserve">0.649673283100128</t>
@@ -74,10 +74,10 @@
     <t xml:space="preserve">0.635026097297668</t>
   </si>
   <si>
-    <t xml:space="preserve">0.666210472583771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.660068035125732</t>
+    <t xml:space="preserve">0.666210412979126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.660068094730377</t>
   </si>
   <si>
     <t xml:space="preserve">0.65770560503006</t>
@@ -95,10 +95,10 @@
     <t xml:space="preserve">0.694087326526642</t>
   </si>
   <si>
-    <t xml:space="preserve">0.684165060520172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.679912686347961</t>
+    <t xml:space="preserve">0.684165000915527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.679912626743317</t>
   </si>
   <si>
     <t xml:space="preserve">0.67235279083252</t>
@@ -110,10 +110,10 @@
     <t xml:space="preserve">0.661485552787781</t>
   </si>
   <si>
-    <t xml:space="preserve">0.62368643283844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.624631404876709</t>
+    <t xml:space="preserve">0.623686373233795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.624631345272064</t>
   </si>
   <si>
     <t xml:space="preserve">0.632663667201996</t>
@@ -125,10 +125,10 @@
     <t xml:space="preserve">0.57596492767334</t>
   </si>
   <si>
-    <t xml:space="preserve">0.580689787864685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.598644375801086</t>
+    <t xml:space="preserve">0.58068984746933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.598644435405731</t>
   </si>
   <si>
     <t xml:space="preserve">0.606676757335663</t>
@@ -155,7 +155,7 @@
     <t xml:space="preserve">0.718184292316437</t>
   </si>
   <si>
-    <t xml:space="preserve">0.728106558322906</t>
+    <t xml:space="preserve">0.728106617927551</t>
   </si>
   <si>
     <t xml:space="preserve">0.713459372520447</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">0.729524075984955</t>
   </si>
   <si>
-    <t xml:space="preserve">0.737083852291107</t>
+    <t xml:space="preserve">0.737083911895752</t>
   </si>
   <si>
     <t xml:space="preserve">0.735666453838348</t>
@@ -173,40 +173,40 @@
     <t xml:space="preserve">0.7342489361763</t>
   </si>
   <si>
-    <t xml:space="preserve">0.759290933609009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.770158171653748</t>
+    <t xml:space="preserve">0.759290874004364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.770158112049103</t>
   </si>
   <si>
     <t xml:space="preserve">0.755983471870422</t>
   </si>
   <si>
-    <t xml:space="preserve">0.727161586284637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.699757158756256</t>
+    <t xml:space="preserve">0.727161645889282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.699757218360901</t>
   </si>
   <si>
     <t xml:space="preserve">0.701174676418304</t>
   </si>
   <si>
-    <t xml:space="preserve">0.708734452724457</t>
+    <t xml:space="preserve">0.708734512329102</t>
   </si>
   <si>
     <t xml:space="preserve">0.724799156188965</t>
   </si>
   <si>
-    <t xml:space="preserve">0.732358932495117</t>
+    <t xml:space="preserve">0.732358992099762</t>
   </si>
   <si>
     <t xml:space="preserve">0.732831478118896</t>
   </si>
   <si>
-    <t xml:space="preserve">0.735193967819214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.730469048023224</t>
+    <t xml:space="preserve">0.735193908214569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.730468988418579</t>
   </si>
   <si>
     <t xml:space="preserve">0.74369877576828</t>
@@ -215,16 +215,16 @@
     <t xml:space="preserve">0.727634072303772</t>
   </si>
   <si>
-    <t xml:space="preserve">0.72007429599762</t>
+    <t xml:space="preserve">0.720074236392975</t>
   </si>
   <si>
     <t xml:space="preserve">0.725744128227234</t>
   </si>
   <si>
-    <t xml:space="preserve">0.722909152507782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.725271642208099</t>
+    <t xml:space="preserve">0.722909212112427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.725271582603455</t>
   </si>
   <si>
     <t xml:space="preserve">0.723381698131561</t>
@@ -59294,27 +59294,79 @@
     </row>
     <row r="2149">
       <c r="A2149" s="1" t="n">
-        <v>45455.6493287037</v>
+        <v>45454.2916666667</v>
       </c>
       <c r="B2149" t="n">
+        <v>48649</v>
+      </c>
+      <c r="C2149" t="n">
+        <v>1.72500002384186</v>
+      </c>
+      <c r="D2149" t="n">
+        <v>1.72000002861023</v>
+      </c>
+      <c r="E2149" t="n">
+        <v>1.72500002384186</v>
+      </c>
+      <c r="F2149" t="n">
+        <v>1.72000002861023</v>
+      </c>
+      <c r="G2149" t="s">
+        <v>822</v>
+      </c>
+      <c r="H2149" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2150">
+      <c r="A2150" s="1" t="n">
+        <v>45455.2916666667</v>
+      </c>
+      <c r="B2150" t="n">
         <v>1400</v>
       </c>
-      <c r="C2149" t="n">
+      <c r="C2150" t="n">
         <v>1.69000005722046</v>
       </c>
-      <c r="D2149" t="n">
+      <c r="D2150" t="n">
         <v>1.67499995231628</v>
       </c>
-      <c r="E2149" t="n">
+      <c r="E2150" t="n">
         <v>1.69000005722046</v>
       </c>
-      <c r="F2149" t="n">
+      <c r="F2150" t="n">
         <v>1.67499995231628</v>
       </c>
-      <c r="G2149" t="s">
+      <c r="G2150" t="s">
         <v>1017</v>
       </c>
-      <c r="H2149" t="s">
+      <c r="H2150" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2151">
+      <c r="A2151" s="1" t="n">
+        <v>45456.649375</v>
+      </c>
+      <c r="B2151" t="n">
+        <v>39902</v>
+      </c>
+      <c r="C2151" t="n">
+        <v>1.72500002384186</v>
+      </c>
+      <c r="D2151" t="n">
+        <v>1.64999997615814</v>
+      </c>
+      <c r="E2151" t="n">
+        <v>1.6599999666214</v>
+      </c>
+      <c r="F2151" t="n">
+        <v>1.7150000333786</v>
+      </c>
+      <c r="G2151" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H2151" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/XPR.MI.xlsx
+++ b/data/XPR.MI.xlsx
@@ -50,7 +50,7 @@
     <t xml:space="preserve">0.699284732341766</t>
   </si>
   <si>
-    <t xml:space="preserve">0.687000036239624</t>
+    <t xml:space="preserve">0.686999976634979</t>
   </si>
   <si>
     <t xml:space="preserve">0.677550196647644</t>
@@ -59,13 +59,13 @@
     <t xml:space="preserve">0.683692574501038</t>
   </si>
   <si>
-    <t xml:space="preserve">0.685110032558441</t>
+    <t xml:space="preserve">0.685110092163086</t>
   </si>
   <si>
     <t xml:space="preserve">0.693614900112152</t>
   </si>
   <si>
-    <t xml:space="preserve">0.67613273859024</t>
+    <t xml:space="preserve">0.676132678985596</t>
   </si>
   <si>
     <t xml:space="preserve">0.649673283100128</t>
@@ -74,10 +74,10 @@
     <t xml:space="preserve">0.635026097297668</t>
   </si>
   <si>
-    <t xml:space="preserve">0.666210412979126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.660068094730377</t>
+    <t xml:space="preserve">0.666210472583771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.660068035125732</t>
   </si>
   <si>
     <t xml:space="preserve">0.65770560503006</t>
@@ -95,10 +95,10 @@
     <t xml:space="preserve">0.694087326526642</t>
   </si>
   <si>
-    <t xml:space="preserve">0.684165000915527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.679912626743317</t>
+    <t xml:space="preserve">0.684165060520172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.679912686347961</t>
   </si>
   <si>
     <t xml:space="preserve">0.67235279083252</t>
@@ -110,10 +110,10 @@
     <t xml:space="preserve">0.661485552787781</t>
   </si>
   <si>
-    <t xml:space="preserve">0.623686373233795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.624631345272064</t>
+    <t xml:space="preserve">0.62368643283844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.624631404876709</t>
   </si>
   <si>
     <t xml:space="preserve">0.632663667201996</t>
@@ -125,10 +125,10 @@
     <t xml:space="preserve">0.57596492767334</t>
   </si>
   <si>
-    <t xml:space="preserve">0.58068984746933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.598644435405731</t>
+    <t xml:space="preserve">0.580689787864685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.598644375801086</t>
   </si>
   <si>
     <t xml:space="preserve">0.606676757335663</t>
@@ -155,7 +155,7 @@
     <t xml:space="preserve">0.718184292316437</t>
   </si>
   <si>
-    <t xml:space="preserve">0.728106617927551</t>
+    <t xml:space="preserve">0.728106558322906</t>
   </si>
   <si>
     <t xml:space="preserve">0.713459372520447</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">0.729524075984955</t>
   </si>
   <si>
-    <t xml:space="preserve">0.737083911895752</t>
+    <t xml:space="preserve">0.737083852291107</t>
   </si>
   <si>
     <t xml:space="preserve">0.735666453838348</t>
@@ -173,40 +173,40 @@
     <t xml:space="preserve">0.7342489361763</t>
   </si>
   <si>
-    <t xml:space="preserve">0.759290874004364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.770158112049103</t>
+    <t xml:space="preserve">0.759290933609009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.770158171653748</t>
   </si>
   <si>
     <t xml:space="preserve">0.755983471870422</t>
   </si>
   <si>
-    <t xml:space="preserve">0.727161645889282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.699757218360901</t>
+    <t xml:space="preserve">0.727161586284637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.699757158756256</t>
   </si>
   <si>
     <t xml:space="preserve">0.701174676418304</t>
   </si>
   <si>
-    <t xml:space="preserve">0.708734512329102</t>
+    <t xml:space="preserve">0.708734452724457</t>
   </si>
   <si>
     <t xml:space="preserve">0.724799156188965</t>
   </si>
   <si>
-    <t xml:space="preserve">0.732358992099762</t>
+    <t xml:space="preserve">0.732358932495117</t>
   </si>
   <si>
     <t xml:space="preserve">0.732831478118896</t>
   </si>
   <si>
-    <t xml:space="preserve">0.735193908214569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.730468988418579</t>
+    <t xml:space="preserve">0.735193967819214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.730469048023224</t>
   </si>
   <si>
     <t xml:space="preserve">0.74369877576828</t>
@@ -215,16 +215,16 @@
     <t xml:space="preserve">0.727634072303772</t>
   </si>
   <si>
-    <t xml:space="preserve">0.720074236392975</t>
+    <t xml:space="preserve">0.72007429599762</t>
   </si>
   <si>
     <t xml:space="preserve">0.725744128227234</t>
   </si>
   <si>
-    <t xml:space="preserve">0.722909212112427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.725271582603455</t>
+    <t xml:space="preserve">0.722909152507782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.725271642208099</t>
   </si>
   <si>
     <t xml:space="preserve">0.723381698131561</t>
@@ -59346,7 +59346,7 @@
     </row>
     <row r="2151">
       <c r="A2151" s="1" t="n">
-        <v>45456.649375</v>
+        <v>45456.2916666667</v>
       </c>
       <c r="B2151" t="n">
         <v>39902</v>
@@ -59367,6 +59367,32 @@
         <v>1019</v>
       </c>
       <c r="H2151" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2152">
+      <c r="A2152" s="1" t="n">
+        <v>45457.513599537</v>
+      </c>
+      <c r="B2152" t="n">
+        <v>22094</v>
+      </c>
+      <c r="C2152" t="n">
+        <v>1.73000001907349</v>
+      </c>
+      <c r="D2152" t="n">
+        <v>1.72000002861023</v>
+      </c>
+      <c r="E2152" t="n">
+        <v>1.72000002861023</v>
+      </c>
+      <c r="F2152" t="n">
+        <v>1.72000002861023</v>
+      </c>
+      <c r="G2152" t="s">
+        <v>822</v>
+      </c>
+      <c r="H2152" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/XPR.MI.xlsx
+++ b/data/XPR.MI.xlsx
@@ -50,7 +50,7 @@
     <t xml:space="preserve">0.699284732341766</t>
   </si>
   <si>
-    <t xml:space="preserve">0.686999976634979</t>
+    <t xml:space="preserve">0.687000036239624</t>
   </si>
   <si>
     <t xml:space="preserve">0.677550196647644</t>
@@ -59,13 +59,13 @@
     <t xml:space="preserve">0.683692574501038</t>
   </si>
   <si>
-    <t xml:space="preserve">0.685110092163086</t>
+    <t xml:space="preserve">0.685110032558441</t>
   </si>
   <si>
     <t xml:space="preserve">0.693614900112152</t>
   </si>
   <si>
-    <t xml:space="preserve">0.676132678985596</t>
+    <t xml:space="preserve">0.67613273859024</t>
   </si>
   <si>
     <t xml:space="preserve">0.649673283100128</t>
@@ -74,10 +74,10 @@
     <t xml:space="preserve">0.635026097297668</t>
   </si>
   <si>
-    <t xml:space="preserve">0.666210472583771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.660068035125732</t>
+    <t xml:space="preserve">0.666210412979126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.660068094730377</t>
   </si>
   <si>
     <t xml:space="preserve">0.65770560503006</t>
@@ -95,10 +95,10 @@
     <t xml:space="preserve">0.694087326526642</t>
   </si>
   <si>
-    <t xml:space="preserve">0.684165060520172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.679912686347961</t>
+    <t xml:space="preserve">0.684165000915527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.679912626743317</t>
   </si>
   <si>
     <t xml:space="preserve">0.67235279083252</t>
@@ -110,10 +110,10 @@
     <t xml:space="preserve">0.661485552787781</t>
   </si>
   <si>
-    <t xml:space="preserve">0.62368643283844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.624631404876709</t>
+    <t xml:space="preserve">0.623686373233795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.624631345272064</t>
   </si>
   <si>
     <t xml:space="preserve">0.632663667201996</t>
@@ -125,10 +125,10 @@
     <t xml:space="preserve">0.57596492767334</t>
   </si>
   <si>
-    <t xml:space="preserve">0.580689787864685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.598644375801086</t>
+    <t xml:space="preserve">0.58068984746933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.598644435405731</t>
   </si>
   <si>
     <t xml:space="preserve">0.606676757335663</t>
@@ -155,7 +155,7 @@
     <t xml:space="preserve">0.718184292316437</t>
   </si>
   <si>
-    <t xml:space="preserve">0.728106558322906</t>
+    <t xml:space="preserve">0.728106617927551</t>
   </si>
   <si>
     <t xml:space="preserve">0.713459372520447</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">0.729524075984955</t>
   </si>
   <si>
-    <t xml:space="preserve">0.737083852291107</t>
+    <t xml:space="preserve">0.737083911895752</t>
   </si>
   <si>
     <t xml:space="preserve">0.735666453838348</t>
@@ -173,40 +173,40 @@
     <t xml:space="preserve">0.7342489361763</t>
   </si>
   <si>
-    <t xml:space="preserve">0.759290933609009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.770158171653748</t>
+    <t xml:space="preserve">0.759290874004364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.770158112049103</t>
   </si>
   <si>
     <t xml:space="preserve">0.755983471870422</t>
   </si>
   <si>
-    <t xml:space="preserve">0.727161586284637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.699757158756256</t>
+    <t xml:space="preserve">0.727161645889282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.699757218360901</t>
   </si>
   <si>
     <t xml:space="preserve">0.701174676418304</t>
   </si>
   <si>
-    <t xml:space="preserve">0.708734452724457</t>
+    <t xml:space="preserve">0.708734512329102</t>
   </si>
   <si>
     <t xml:space="preserve">0.724799156188965</t>
   </si>
   <si>
-    <t xml:space="preserve">0.732358932495117</t>
+    <t xml:space="preserve">0.732358992099762</t>
   </si>
   <si>
     <t xml:space="preserve">0.732831478118896</t>
   </si>
   <si>
-    <t xml:space="preserve">0.735193967819214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.730469048023224</t>
+    <t xml:space="preserve">0.735193908214569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.730468988418579</t>
   </si>
   <si>
     <t xml:space="preserve">0.74369877576828</t>
@@ -215,16 +215,16 @@
     <t xml:space="preserve">0.727634072303772</t>
   </si>
   <si>
-    <t xml:space="preserve">0.72007429599762</t>
+    <t xml:space="preserve">0.720074236392975</t>
   </si>
   <si>
     <t xml:space="preserve">0.725744128227234</t>
   </si>
   <si>
-    <t xml:space="preserve">0.722909152507782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.725271642208099</t>
+    <t xml:space="preserve">0.722909212112427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.725271582603455</t>
   </si>
   <si>
     <t xml:space="preserve">0.723381698131561</t>
@@ -59372,7 +59372,7 @@
     </row>
     <row r="2152">
       <c r="A2152" s="1" t="n">
-        <v>45457.513599537</v>
+        <v>45457.2916666667</v>
       </c>
       <c r="B2152" t="n">
         <v>22094</v>
@@ -59393,6 +59393,32 @@
         <v>822</v>
       </c>
       <c r="H2152" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2153">
+      <c r="A2153" s="1" t="n">
+        <v>45460.6495717593</v>
+      </c>
+      <c r="B2153" t="n">
+        <v>1187</v>
+      </c>
+      <c r="C2153" t="n">
+        <v>1.70500004291534</v>
+      </c>
+      <c r="D2153" t="n">
+        <v>1.69000005722046</v>
+      </c>
+      <c r="E2153" t="n">
+        <v>1.69000005722046</v>
+      </c>
+      <c r="F2153" t="n">
+        <v>1.70500004291534</v>
+      </c>
+      <c r="G2153" t="s">
+        <v>1022</v>
+      </c>
+      <c r="H2153" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/XPR.MI.xlsx
+++ b/data/XPR.MI.xlsx
@@ -50,7 +50,7 @@
     <t xml:space="preserve">0.699284732341766</t>
   </si>
   <si>
-    <t xml:space="preserve">0.687000036239624</t>
+    <t xml:space="preserve">0.686999976634979</t>
   </si>
   <si>
     <t xml:space="preserve">0.677550196647644</t>
@@ -59,13 +59,13 @@
     <t xml:space="preserve">0.683692574501038</t>
   </si>
   <si>
-    <t xml:space="preserve">0.685110032558441</t>
+    <t xml:space="preserve">0.685110092163086</t>
   </si>
   <si>
     <t xml:space="preserve">0.693614900112152</t>
   </si>
   <si>
-    <t xml:space="preserve">0.67613273859024</t>
+    <t xml:space="preserve">0.676132678985596</t>
   </si>
   <si>
     <t xml:space="preserve">0.649673283100128</t>
@@ -74,10 +74,10 @@
     <t xml:space="preserve">0.635026097297668</t>
   </si>
   <si>
-    <t xml:space="preserve">0.666210412979126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.660068094730377</t>
+    <t xml:space="preserve">0.666210472583771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.660068035125732</t>
   </si>
   <si>
     <t xml:space="preserve">0.65770560503006</t>
@@ -95,10 +95,10 @@
     <t xml:space="preserve">0.694087326526642</t>
   </si>
   <si>
-    <t xml:space="preserve">0.684165000915527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.679912626743317</t>
+    <t xml:space="preserve">0.684165060520172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.679912686347961</t>
   </si>
   <si>
     <t xml:space="preserve">0.67235279083252</t>
@@ -110,10 +110,10 @@
     <t xml:space="preserve">0.661485552787781</t>
   </si>
   <si>
-    <t xml:space="preserve">0.623686373233795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.624631345272064</t>
+    <t xml:space="preserve">0.62368643283844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.624631404876709</t>
   </si>
   <si>
     <t xml:space="preserve">0.632663667201996</t>
@@ -125,10 +125,10 @@
     <t xml:space="preserve">0.57596492767334</t>
   </si>
   <si>
-    <t xml:space="preserve">0.58068984746933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.598644435405731</t>
+    <t xml:space="preserve">0.580689787864685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.598644375801086</t>
   </si>
   <si>
     <t xml:space="preserve">0.606676757335663</t>
@@ -155,7 +155,7 @@
     <t xml:space="preserve">0.718184292316437</t>
   </si>
   <si>
-    <t xml:space="preserve">0.728106617927551</t>
+    <t xml:space="preserve">0.728106558322906</t>
   </si>
   <si>
     <t xml:space="preserve">0.713459372520447</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">0.729524075984955</t>
   </si>
   <si>
-    <t xml:space="preserve">0.737083911895752</t>
+    <t xml:space="preserve">0.737083852291107</t>
   </si>
   <si>
     <t xml:space="preserve">0.735666453838348</t>
@@ -173,40 +173,40 @@
     <t xml:space="preserve">0.7342489361763</t>
   </si>
   <si>
-    <t xml:space="preserve">0.759290874004364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.770158112049103</t>
+    <t xml:space="preserve">0.759290933609009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.770158171653748</t>
   </si>
   <si>
     <t xml:space="preserve">0.755983471870422</t>
   </si>
   <si>
-    <t xml:space="preserve">0.727161645889282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.699757218360901</t>
+    <t xml:space="preserve">0.727161586284637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.699757158756256</t>
   </si>
   <si>
     <t xml:space="preserve">0.701174676418304</t>
   </si>
   <si>
-    <t xml:space="preserve">0.708734512329102</t>
+    <t xml:space="preserve">0.708734452724457</t>
   </si>
   <si>
     <t xml:space="preserve">0.724799156188965</t>
   </si>
   <si>
-    <t xml:space="preserve">0.732358992099762</t>
+    <t xml:space="preserve">0.732358932495117</t>
   </si>
   <si>
     <t xml:space="preserve">0.732831478118896</t>
   </si>
   <si>
-    <t xml:space="preserve">0.735193908214569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.730468988418579</t>
+    <t xml:space="preserve">0.735193967819214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.730469048023224</t>
   </si>
   <si>
     <t xml:space="preserve">0.74369877576828</t>
@@ -215,16 +215,16 @@
     <t xml:space="preserve">0.727634072303772</t>
   </si>
   <si>
-    <t xml:space="preserve">0.720074236392975</t>
+    <t xml:space="preserve">0.72007429599762</t>
   </si>
   <si>
     <t xml:space="preserve">0.725744128227234</t>
   </si>
   <si>
-    <t xml:space="preserve">0.722909212112427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.725271582603455</t>
+    <t xml:space="preserve">0.722909152507782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.725271642208099</t>
   </si>
   <si>
     <t xml:space="preserve">0.723381698131561</t>
@@ -59398,7 +59398,7 @@
     </row>
     <row r="2153">
       <c r="A2153" s="1" t="n">
-        <v>45460.6495717593</v>
+        <v>45460.2916666667</v>
       </c>
       <c r="B2153" t="n">
         <v>1187</v>
@@ -59419,6 +59419,32 @@
         <v>1022</v>
       </c>
       <c r="H2153" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2154">
+      <c r="A2154" s="1" t="n">
+        <v>45461.5637152778</v>
+      </c>
+      <c r="B2154" t="n">
+        <v>6356</v>
+      </c>
+      <c r="C2154" t="n">
+        <v>1.72000002861023</v>
+      </c>
+      <c r="D2154" t="n">
+        <v>1.68499994277954</v>
+      </c>
+      <c r="E2154" t="n">
+        <v>1.68499994277954</v>
+      </c>
+      <c r="F2154" t="n">
+        <v>1.72000002861023</v>
+      </c>
+      <c r="G2154" t="s">
+        <v>822</v>
+      </c>
+      <c r="H2154" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/XPR.MI.xlsx
+++ b/data/XPR.MI.xlsx
@@ -59424,7 +59424,7 @@
     </row>
     <row r="2154">
       <c r="A2154" s="1" t="n">
-        <v>45461.5637152778</v>
+        <v>45461.2916666667</v>
       </c>
       <c r="B2154" t="n">
         <v>6356</v>
@@ -59445,6 +59445,32 @@
         <v>822</v>
       </c>
       <c r="H2154" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2155">
+      <c r="A2155" s="1" t="n">
+        <v>45462.6495138889</v>
+      </c>
+      <c r="B2155" t="n">
+        <v>6013</v>
+      </c>
+      <c r="C2155" t="n">
+        <v>1.72500002384186</v>
+      </c>
+      <c r="D2155" t="n">
+        <v>1.69000005722046</v>
+      </c>
+      <c r="E2155" t="n">
+        <v>1.69000005722046</v>
+      </c>
+      <c r="F2155" t="n">
+        <v>1.69500005245209</v>
+      </c>
+      <c r="G2155" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H2155" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/XPR.MI.xlsx
+++ b/data/XPR.MI.xlsx
@@ -50,7 +50,7 @@
     <t xml:space="preserve">0.699284732341766</t>
   </si>
   <si>
-    <t xml:space="preserve">0.686999976634979</t>
+    <t xml:space="preserve">0.687000036239624</t>
   </si>
   <si>
     <t xml:space="preserve">0.677550196647644</t>
@@ -59,13 +59,13 @@
     <t xml:space="preserve">0.683692574501038</t>
   </si>
   <si>
-    <t xml:space="preserve">0.685110092163086</t>
+    <t xml:space="preserve">0.685110032558441</t>
   </si>
   <si>
     <t xml:space="preserve">0.693614900112152</t>
   </si>
   <si>
-    <t xml:space="preserve">0.676132678985596</t>
+    <t xml:space="preserve">0.67613273859024</t>
   </si>
   <si>
     <t xml:space="preserve">0.649673283100128</t>
@@ -74,10 +74,10 @@
     <t xml:space="preserve">0.635026097297668</t>
   </si>
   <si>
-    <t xml:space="preserve">0.666210472583771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.660068035125732</t>
+    <t xml:space="preserve">0.666210412979126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.660068094730377</t>
   </si>
   <si>
     <t xml:space="preserve">0.65770560503006</t>
@@ -95,10 +95,10 @@
     <t xml:space="preserve">0.694087326526642</t>
   </si>
   <si>
-    <t xml:space="preserve">0.684165060520172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.679912686347961</t>
+    <t xml:space="preserve">0.684165000915527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.679912626743317</t>
   </si>
   <si>
     <t xml:space="preserve">0.67235279083252</t>
@@ -110,10 +110,10 @@
     <t xml:space="preserve">0.661485552787781</t>
   </si>
   <si>
-    <t xml:space="preserve">0.62368643283844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.624631404876709</t>
+    <t xml:space="preserve">0.623686373233795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.624631345272064</t>
   </si>
   <si>
     <t xml:space="preserve">0.632663667201996</t>
@@ -125,10 +125,10 @@
     <t xml:space="preserve">0.57596492767334</t>
   </si>
   <si>
-    <t xml:space="preserve">0.580689787864685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.598644375801086</t>
+    <t xml:space="preserve">0.58068984746933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.598644435405731</t>
   </si>
   <si>
     <t xml:space="preserve">0.606676757335663</t>
@@ -155,7 +155,7 @@
     <t xml:space="preserve">0.718184292316437</t>
   </si>
   <si>
-    <t xml:space="preserve">0.728106558322906</t>
+    <t xml:space="preserve">0.728106617927551</t>
   </si>
   <si>
     <t xml:space="preserve">0.713459372520447</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">0.729524075984955</t>
   </si>
   <si>
-    <t xml:space="preserve">0.737083852291107</t>
+    <t xml:space="preserve">0.737083911895752</t>
   </si>
   <si>
     <t xml:space="preserve">0.735666453838348</t>
@@ -173,40 +173,40 @@
     <t xml:space="preserve">0.7342489361763</t>
   </si>
   <si>
-    <t xml:space="preserve">0.759290933609009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.770158171653748</t>
+    <t xml:space="preserve">0.759290874004364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.770158112049103</t>
   </si>
   <si>
     <t xml:space="preserve">0.755983471870422</t>
   </si>
   <si>
-    <t xml:space="preserve">0.727161586284637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.699757158756256</t>
+    <t xml:space="preserve">0.727161645889282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.699757218360901</t>
   </si>
   <si>
     <t xml:space="preserve">0.701174676418304</t>
   </si>
   <si>
-    <t xml:space="preserve">0.708734452724457</t>
+    <t xml:space="preserve">0.708734512329102</t>
   </si>
   <si>
     <t xml:space="preserve">0.724799156188965</t>
   </si>
   <si>
-    <t xml:space="preserve">0.732358932495117</t>
+    <t xml:space="preserve">0.732358992099762</t>
   </si>
   <si>
     <t xml:space="preserve">0.732831478118896</t>
   </si>
   <si>
-    <t xml:space="preserve">0.735193967819214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.730469048023224</t>
+    <t xml:space="preserve">0.735193908214569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.730468988418579</t>
   </si>
   <si>
     <t xml:space="preserve">0.74369877576828</t>
@@ -215,16 +215,16 @@
     <t xml:space="preserve">0.727634072303772</t>
   </si>
   <si>
-    <t xml:space="preserve">0.72007429599762</t>
+    <t xml:space="preserve">0.720074236392975</t>
   </si>
   <si>
     <t xml:space="preserve">0.725744128227234</t>
   </si>
   <si>
-    <t xml:space="preserve">0.722909152507782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.725271642208099</t>
+    <t xml:space="preserve">0.722909212112427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.725271582603455</t>
   </si>
   <si>
     <t xml:space="preserve">0.723381698131561</t>
@@ -59450,7 +59450,7 @@
     </row>
     <row r="2155">
       <c r="A2155" s="1" t="n">
-        <v>45462.6495138889</v>
+        <v>45462.2916666667</v>
       </c>
       <c r="B2155" t="n">
         <v>6013</v>
@@ -59471,6 +59471,32 @@
         <v>1018</v>
       </c>
       <c r="H2155" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2156">
+      <c r="A2156" s="1" t="n">
+        <v>45463.6495949074</v>
+      </c>
+      <c r="B2156" t="n">
+        <v>37972</v>
+      </c>
+      <c r="C2156" t="n">
+        <v>1.83000004291534</v>
+      </c>
+      <c r="D2156" t="n">
+        <v>1.70000004768372</v>
+      </c>
+      <c r="E2156" t="n">
+        <v>1.70000004768372</v>
+      </c>
+      <c r="F2156" t="n">
+        <v>1.76999998092651</v>
+      </c>
+      <c r="G2156" t="s">
+        <v>1014</v>
+      </c>
+      <c r="H2156" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/XPR.MI.xlsx
+++ b/data/XPR.MI.xlsx
@@ -59476,7 +59476,7 @@
     </row>
     <row r="2156">
       <c r="A2156" s="1" t="n">
-        <v>45463.6495949074</v>
+        <v>45463.2916666667</v>
       </c>
       <c r="B2156" t="n">
         <v>37972</v>
@@ -59497,6 +59497,32 @@
         <v>1014</v>
       </c>
       <c r="H2156" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2157">
+      <c r="A2157" s="1" t="n">
+        <v>45464.6396759259</v>
+      </c>
+      <c r="B2157" t="n">
+        <v>25448</v>
+      </c>
+      <c r="C2157" t="n">
+        <v>1.83000004291534</v>
+      </c>
+      <c r="D2157" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="E2157" t="n">
+        <v>1.83000004291534</v>
+      </c>
+      <c r="F2157" t="n">
+        <v>1.79999995231628</v>
+      </c>
+      <c r="G2157" t="s">
+        <v>866</v>
+      </c>
+      <c r="H2157" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/XPR.MI.xlsx
+++ b/data/XPR.MI.xlsx
@@ -59502,7 +59502,7 @@
     </row>
     <row r="2157">
       <c r="A2157" s="1" t="n">
-        <v>45464.6396759259</v>
+        <v>45464.2916666667</v>
       </c>
       <c r="B2157" t="n">
         <v>25448</v>
@@ -59523,6 +59523,32 @@
         <v>866</v>
       </c>
       <c r="H2157" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2158">
+      <c r="A2158" s="1" t="n">
+        <v>45467.6495717593</v>
+      </c>
+      <c r="B2158" t="n">
+        <v>25372</v>
+      </c>
+      <c r="C2158" t="n">
+        <v>1.83000004291534</v>
+      </c>
+      <c r="D2158" t="n">
+        <v>1.76999998092651</v>
+      </c>
+      <c r="E2158" t="n">
+        <v>1.76999998092651</v>
+      </c>
+      <c r="F2158" t="n">
+        <v>1.83000004291534</v>
+      </c>
+      <c r="G2158" t="s">
+        <v>867</v>
+      </c>
+      <c r="H2158" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/XPR.MI.xlsx
+++ b/data/XPR.MI.xlsx
@@ -50,7 +50,7 @@
     <t xml:space="preserve">0.699284732341766</t>
   </si>
   <si>
-    <t xml:space="preserve">0.687000036239624</t>
+    <t xml:space="preserve">0.686999976634979</t>
   </si>
   <si>
     <t xml:space="preserve">0.677550196647644</t>
@@ -59,13 +59,13 @@
     <t xml:space="preserve">0.683692574501038</t>
   </si>
   <si>
-    <t xml:space="preserve">0.685110032558441</t>
+    <t xml:space="preserve">0.685110092163086</t>
   </si>
   <si>
     <t xml:space="preserve">0.693614900112152</t>
   </si>
   <si>
-    <t xml:space="preserve">0.67613273859024</t>
+    <t xml:space="preserve">0.676132678985596</t>
   </si>
   <si>
     <t xml:space="preserve">0.649673283100128</t>
@@ -74,10 +74,10 @@
     <t xml:space="preserve">0.635026097297668</t>
   </si>
   <si>
-    <t xml:space="preserve">0.666210412979126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.660068094730377</t>
+    <t xml:space="preserve">0.666210472583771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.660068035125732</t>
   </si>
   <si>
     <t xml:space="preserve">0.65770560503006</t>
@@ -95,10 +95,10 @@
     <t xml:space="preserve">0.694087326526642</t>
   </si>
   <si>
-    <t xml:space="preserve">0.684165000915527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.679912626743317</t>
+    <t xml:space="preserve">0.684165060520172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.679912686347961</t>
   </si>
   <si>
     <t xml:space="preserve">0.67235279083252</t>
@@ -110,10 +110,10 @@
     <t xml:space="preserve">0.661485552787781</t>
   </si>
   <si>
-    <t xml:space="preserve">0.623686373233795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.624631345272064</t>
+    <t xml:space="preserve">0.62368643283844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.624631404876709</t>
   </si>
   <si>
     <t xml:space="preserve">0.632663667201996</t>
@@ -125,10 +125,10 @@
     <t xml:space="preserve">0.57596492767334</t>
   </si>
   <si>
-    <t xml:space="preserve">0.58068984746933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.598644435405731</t>
+    <t xml:space="preserve">0.580689787864685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.598644375801086</t>
   </si>
   <si>
     <t xml:space="preserve">0.606676757335663</t>
@@ -155,7 +155,7 @@
     <t xml:space="preserve">0.718184292316437</t>
   </si>
   <si>
-    <t xml:space="preserve">0.728106617927551</t>
+    <t xml:space="preserve">0.728106558322906</t>
   </si>
   <si>
     <t xml:space="preserve">0.713459372520447</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">0.729524075984955</t>
   </si>
   <si>
-    <t xml:space="preserve">0.737083911895752</t>
+    <t xml:space="preserve">0.737083852291107</t>
   </si>
   <si>
     <t xml:space="preserve">0.735666453838348</t>
@@ -173,40 +173,40 @@
     <t xml:space="preserve">0.7342489361763</t>
   </si>
   <si>
-    <t xml:space="preserve">0.759290874004364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.770158112049103</t>
+    <t xml:space="preserve">0.759290933609009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.770158171653748</t>
   </si>
   <si>
     <t xml:space="preserve">0.755983471870422</t>
   </si>
   <si>
-    <t xml:space="preserve">0.727161645889282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.699757218360901</t>
+    <t xml:space="preserve">0.727161586284637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.699757158756256</t>
   </si>
   <si>
     <t xml:space="preserve">0.701174676418304</t>
   </si>
   <si>
-    <t xml:space="preserve">0.708734512329102</t>
+    <t xml:space="preserve">0.708734452724457</t>
   </si>
   <si>
     <t xml:space="preserve">0.724799156188965</t>
   </si>
   <si>
-    <t xml:space="preserve">0.732358992099762</t>
+    <t xml:space="preserve">0.732358932495117</t>
   </si>
   <si>
     <t xml:space="preserve">0.732831478118896</t>
   </si>
   <si>
-    <t xml:space="preserve">0.735193908214569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.730468988418579</t>
+    <t xml:space="preserve">0.735193967819214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.730469048023224</t>
   </si>
   <si>
     <t xml:space="preserve">0.74369877576828</t>
@@ -215,16 +215,16 @@
     <t xml:space="preserve">0.727634072303772</t>
   </si>
   <si>
-    <t xml:space="preserve">0.720074236392975</t>
+    <t xml:space="preserve">0.72007429599762</t>
   </si>
   <si>
     <t xml:space="preserve">0.725744128227234</t>
   </si>
   <si>
-    <t xml:space="preserve">0.722909212112427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.725271582603455</t>
+    <t xml:space="preserve">0.722909152507782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.725271642208099</t>
   </si>
   <si>
     <t xml:space="preserve">0.723381698131561</t>
@@ -59528,7 +59528,7 @@
     </row>
     <row r="2158">
       <c r="A2158" s="1" t="n">
-        <v>45467.6495717593</v>
+        <v>45467.2916666667</v>
       </c>
       <c r="B2158" t="n">
         <v>25372</v>
@@ -59549,6 +59549,32 @@
         <v>867</v>
       </c>
       <c r="H2158" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2159">
+      <c r="A2159" s="1" t="n">
+        <v>45468.5749537037</v>
+      </c>
+      <c r="B2159" t="n">
+        <v>34787</v>
+      </c>
+      <c r="C2159" t="n">
+        <v>1.88999998569489</v>
+      </c>
+      <c r="D2159" t="n">
+        <v>1.84500002861023</v>
+      </c>
+      <c r="E2159" t="n">
+        <v>1.84500002861023</v>
+      </c>
+      <c r="F2159" t="n">
+        <v>1.88999998569489</v>
+      </c>
+      <c r="G2159" t="s">
+        <v>825</v>
+      </c>
+      <c r="H2159" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/XPR.MI.xlsx
+++ b/data/XPR.MI.xlsx
@@ -59554,7 +59554,7 @@
     </row>
     <row r="2159">
       <c r="A2159" s="1" t="n">
-        <v>45468.5749537037</v>
+        <v>45468.2916666667</v>
       </c>
       <c r="B2159" t="n">
         <v>34787</v>
@@ -59575,6 +59575,32 @@
         <v>825</v>
       </c>
       <c r="H2159" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2160">
+      <c r="A2160" s="1" t="n">
+        <v>45469.644837963</v>
+      </c>
+      <c r="B2160" t="n">
+        <v>4952</v>
+      </c>
+      <c r="C2160" t="n">
+        <v>1.88999998569489</v>
+      </c>
+      <c r="D2160" t="n">
+        <v>1.86000001430511</v>
+      </c>
+      <c r="E2160" t="n">
+        <v>1.88999998569489</v>
+      </c>
+      <c r="F2160" t="n">
+        <v>1.86000001430511</v>
+      </c>
+      <c r="G2160" t="s">
+        <v>829</v>
+      </c>
+      <c r="H2160" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/XPR.MI.xlsx
+++ b/data/XPR.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="1031">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="1032">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -50,7 +50,7 @@
     <t xml:space="preserve">0.699284732341766</t>
   </si>
   <si>
-    <t xml:space="preserve">0.686999976634979</t>
+    <t xml:space="preserve">0.687000036239624</t>
   </si>
   <si>
     <t xml:space="preserve">0.677550196647644</t>
@@ -59,13 +59,13 @@
     <t xml:space="preserve">0.683692574501038</t>
   </si>
   <si>
-    <t xml:space="preserve">0.685110092163086</t>
+    <t xml:space="preserve">0.685110032558441</t>
   </si>
   <si>
     <t xml:space="preserve">0.693614900112152</t>
   </si>
   <si>
-    <t xml:space="preserve">0.676132678985596</t>
+    <t xml:space="preserve">0.67613273859024</t>
   </si>
   <si>
     <t xml:space="preserve">0.649673283100128</t>
@@ -74,10 +74,10 @@
     <t xml:space="preserve">0.635026097297668</t>
   </si>
   <si>
-    <t xml:space="preserve">0.666210472583771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.660068035125732</t>
+    <t xml:space="preserve">0.666210412979126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.660068094730377</t>
   </si>
   <si>
     <t xml:space="preserve">0.65770560503006</t>
@@ -95,10 +95,10 @@
     <t xml:space="preserve">0.694087326526642</t>
   </si>
   <si>
-    <t xml:space="preserve">0.684165060520172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.679912686347961</t>
+    <t xml:space="preserve">0.684165000915527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.679912626743317</t>
   </si>
   <si>
     <t xml:space="preserve">0.67235279083252</t>
@@ -110,10 +110,10 @@
     <t xml:space="preserve">0.661485552787781</t>
   </si>
   <si>
-    <t xml:space="preserve">0.62368643283844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.624631404876709</t>
+    <t xml:space="preserve">0.623686373233795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.624631345272064</t>
   </si>
   <si>
     <t xml:space="preserve">0.632663667201996</t>
@@ -125,10 +125,10 @@
     <t xml:space="preserve">0.57596492767334</t>
   </si>
   <si>
-    <t xml:space="preserve">0.580689787864685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.598644375801086</t>
+    <t xml:space="preserve">0.58068984746933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.598644435405731</t>
   </si>
   <si>
     <t xml:space="preserve">0.606676757335663</t>
@@ -155,7 +155,7 @@
     <t xml:space="preserve">0.718184292316437</t>
   </si>
   <si>
-    <t xml:space="preserve">0.728106558322906</t>
+    <t xml:space="preserve">0.728106617927551</t>
   </si>
   <si>
     <t xml:space="preserve">0.713459372520447</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">0.729524075984955</t>
   </si>
   <si>
-    <t xml:space="preserve">0.737083852291107</t>
+    <t xml:space="preserve">0.737083911895752</t>
   </si>
   <si>
     <t xml:space="preserve">0.735666453838348</t>
@@ -173,40 +173,40 @@
     <t xml:space="preserve">0.7342489361763</t>
   </si>
   <si>
-    <t xml:space="preserve">0.759290933609009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.770158171653748</t>
+    <t xml:space="preserve">0.759290874004364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.770158112049103</t>
   </si>
   <si>
     <t xml:space="preserve">0.755983471870422</t>
   </si>
   <si>
-    <t xml:space="preserve">0.727161586284637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.699757158756256</t>
+    <t xml:space="preserve">0.727161645889282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.699757218360901</t>
   </si>
   <si>
     <t xml:space="preserve">0.701174676418304</t>
   </si>
   <si>
-    <t xml:space="preserve">0.708734452724457</t>
+    <t xml:space="preserve">0.708734512329102</t>
   </si>
   <si>
     <t xml:space="preserve">0.724799156188965</t>
   </si>
   <si>
-    <t xml:space="preserve">0.732358932495117</t>
+    <t xml:space="preserve">0.732358992099762</t>
   </si>
   <si>
     <t xml:space="preserve">0.732831478118896</t>
   </si>
   <si>
-    <t xml:space="preserve">0.735193967819214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.730469048023224</t>
+    <t xml:space="preserve">0.735193908214569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.730468988418579</t>
   </si>
   <si>
     <t xml:space="preserve">0.74369877576828</t>
@@ -215,16 +215,16 @@
     <t xml:space="preserve">0.727634072303772</t>
   </si>
   <si>
-    <t xml:space="preserve">0.72007429599762</t>
+    <t xml:space="preserve">0.720074236392975</t>
   </si>
   <si>
     <t xml:space="preserve">0.725744128227234</t>
   </si>
   <si>
-    <t xml:space="preserve">0.722909152507782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.725271642208099</t>
+    <t xml:space="preserve">0.722909212112427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.725271582603455</t>
   </si>
   <si>
     <t xml:space="preserve">0.723381698131561</t>
@@ -3105,6 +3105,9 @@
   </si>
   <si>
     <t xml:space="preserve">1.65499997138977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89999997615814</t>
   </si>
 </sst>
 </file>
@@ -59580,7 +59583,7 @@
     </row>
     <row r="2160">
       <c r="A2160" s="1" t="n">
-        <v>45469.644837963</v>
+        <v>45469.2916666667</v>
       </c>
       <c r="B2160" t="n">
         <v>4952</v>
@@ -59601,6 +59604,32 @@
         <v>829</v>
       </c>
       <c r="H2160" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2161">
+      <c r="A2161" s="1" t="n">
+        <v>45470.6495717593</v>
+      </c>
+      <c r="B2161" t="n">
+        <v>55529</v>
+      </c>
+      <c r="C2161" t="n">
+        <v>1.95000004768372</v>
+      </c>
+      <c r="D2161" t="n">
+        <v>1.87000000476837</v>
+      </c>
+      <c r="E2161" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="F2161" t="n">
+        <v>1.89999997615814</v>
+      </c>
+      <c r="G2161" t="s">
+        <v>1031</v>
+      </c>
+      <c r="H2161" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/XPR.MI.xlsx
+++ b/data/XPR.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="1032">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="1033">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -50,7 +50,7 @@
     <t xml:space="preserve">0.699284732341766</t>
   </si>
   <si>
-    <t xml:space="preserve">0.687000036239624</t>
+    <t xml:space="preserve">0.686999976634979</t>
   </si>
   <si>
     <t xml:space="preserve">0.677550196647644</t>
@@ -59,13 +59,13 @@
     <t xml:space="preserve">0.683692574501038</t>
   </si>
   <si>
-    <t xml:space="preserve">0.685110032558441</t>
+    <t xml:space="preserve">0.685110092163086</t>
   </si>
   <si>
     <t xml:space="preserve">0.693614900112152</t>
   </si>
   <si>
-    <t xml:space="preserve">0.67613273859024</t>
+    <t xml:space="preserve">0.676132678985596</t>
   </si>
   <si>
     <t xml:space="preserve">0.649673283100128</t>
@@ -74,10 +74,10 @@
     <t xml:space="preserve">0.635026097297668</t>
   </si>
   <si>
-    <t xml:space="preserve">0.666210412979126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.660068094730377</t>
+    <t xml:space="preserve">0.666210472583771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.660068035125732</t>
   </si>
   <si>
     <t xml:space="preserve">0.65770560503006</t>
@@ -95,10 +95,10 @@
     <t xml:space="preserve">0.694087326526642</t>
   </si>
   <si>
-    <t xml:space="preserve">0.684165000915527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.679912626743317</t>
+    <t xml:space="preserve">0.684165060520172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.679912686347961</t>
   </si>
   <si>
     <t xml:space="preserve">0.67235279083252</t>
@@ -110,10 +110,10 @@
     <t xml:space="preserve">0.661485552787781</t>
   </si>
   <si>
-    <t xml:space="preserve">0.623686373233795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.624631345272064</t>
+    <t xml:space="preserve">0.62368643283844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.624631404876709</t>
   </si>
   <si>
     <t xml:space="preserve">0.632663667201996</t>
@@ -125,10 +125,10 @@
     <t xml:space="preserve">0.57596492767334</t>
   </si>
   <si>
-    <t xml:space="preserve">0.58068984746933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.598644435405731</t>
+    <t xml:space="preserve">0.580689787864685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.598644375801086</t>
   </si>
   <si>
     <t xml:space="preserve">0.606676757335663</t>
@@ -155,7 +155,7 @@
     <t xml:space="preserve">0.718184292316437</t>
   </si>
   <si>
-    <t xml:space="preserve">0.728106617927551</t>
+    <t xml:space="preserve">0.728106558322906</t>
   </si>
   <si>
     <t xml:space="preserve">0.713459372520447</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">0.729524075984955</t>
   </si>
   <si>
-    <t xml:space="preserve">0.737083911895752</t>
+    <t xml:space="preserve">0.737083852291107</t>
   </si>
   <si>
     <t xml:space="preserve">0.735666453838348</t>
@@ -173,40 +173,40 @@
     <t xml:space="preserve">0.7342489361763</t>
   </si>
   <si>
-    <t xml:space="preserve">0.759290874004364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.770158112049103</t>
+    <t xml:space="preserve">0.759290933609009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.770158171653748</t>
   </si>
   <si>
     <t xml:space="preserve">0.755983471870422</t>
   </si>
   <si>
-    <t xml:space="preserve">0.727161645889282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.699757218360901</t>
+    <t xml:space="preserve">0.727161586284637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.699757158756256</t>
   </si>
   <si>
     <t xml:space="preserve">0.701174676418304</t>
   </si>
   <si>
-    <t xml:space="preserve">0.708734512329102</t>
+    <t xml:space="preserve">0.708734452724457</t>
   </si>
   <si>
     <t xml:space="preserve">0.724799156188965</t>
   </si>
   <si>
-    <t xml:space="preserve">0.732358992099762</t>
+    <t xml:space="preserve">0.732358932495117</t>
   </si>
   <si>
     <t xml:space="preserve">0.732831478118896</t>
   </si>
   <si>
-    <t xml:space="preserve">0.735193908214569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.730468988418579</t>
+    <t xml:space="preserve">0.735193967819214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.730469048023224</t>
   </si>
   <si>
     <t xml:space="preserve">0.74369877576828</t>
@@ -215,16 +215,16 @@
     <t xml:space="preserve">0.727634072303772</t>
   </si>
   <si>
-    <t xml:space="preserve">0.720074236392975</t>
+    <t xml:space="preserve">0.72007429599762</t>
   </si>
   <si>
     <t xml:space="preserve">0.725744128227234</t>
   </si>
   <si>
-    <t xml:space="preserve">0.722909212112427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.725271582603455</t>
+    <t xml:space="preserve">0.722909152507782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.725271642208099</t>
   </si>
   <si>
     <t xml:space="preserve">0.723381698131561</t>
@@ -3108,6 +3108,9 @@
   </si>
   <si>
     <t xml:space="preserve">1.89999997615814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96000003814697</t>
   </si>
 </sst>
 </file>
@@ -59609,7 +59612,7 @@
     </row>
     <row r="2161">
       <c r="A2161" s="1" t="n">
-        <v>45470.6495717593</v>
+        <v>45470.2916666667</v>
       </c>
       <c r="B2161" t="n">
         <v>55529</v>
@@ -59630,6 +59633,32 @@
         <v>1031</v>
       </c>
       <c r="H2161" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2162">
+      <c r="A2162" s="1" t="n">
+        <v>45471.6372453704</v>
+      </c>
+      <c r="B2162" t="n">
+        <v>28824</v>
+      </c>
+      <c r="C2162" t="n">
+        <v>1.98000001907349</v>
+      </c>
+      <c r="D2162" t="n">
+        <v>1.88999998569489</v>
+      </c>
+      <c r="E2162" t="n">
+        <v>1.88999998569489</v>
+      </c>
+      <c r="F2162" t="n">
+        <v>1.96000003814697</v>
+      </c>
+      <c r="G2162" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H2162" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/XPR.MI.xlsx
+++ b/data/XPR.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="1033">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="1034">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -50,7 +50,7 @@
     <t xml:space="preserve">0.699284732341766</t>
   </si>
   <si>
-    <t xml:space="preserve">0.686999976634979</t>
+    <t xml:space="preserve">0.687000036239624</t>
   </si>
   <si>
     <t xml:space="preserve">0.677550196647644</t>
@@ -59,13 +59,13 @@
     <t xml:space="preserve">0.683692574501038</t>
   </si>
   <si>
-    <t xml:space="preserve">0.685110092163086</t>
+    <t xml:space="preserve">0.685110032558441</t>
   </si>
   <si>
     <t xml:space="preserve">0.693614900112152</t>
   </si>
   <si>
-    <t xml:space="preserve">0.676132678985596</t>
+    <t xml:space="preserve">0.67613273859024</t>
   </si>
   <si>
     <t xml:space="preserve">0.649673283100128</t>
@@ -74,10 +74,10 @@
     <t xml:space="preserve">0.635026097297668</t>
   </si>
   <si>
-    <t xml:space="preserve">0.666210472583771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.660068035125732</t>
+    <t xml:space="preserve">0.666210412979126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.660068094730377</t>
   </si>
   <si>
     <t xml:space="preserve">0.65770560503006</t>
@@ -95,10 +95,10 @@
     <t xml:space="preserve">0.694087326526642</t>
   </si>
   <si>
-    <t xml:space="preserve">0.684165060520172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.679912686347961</t>
+    <t xml:space="preserve">0.684165000915527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.679912626743317</t>
   </si>
   <si>
     <t xml:space="preserve">0.67235279083252</t>
@@ -110,10 +110,10 @@
     <t xml:space="preserve">0.661485552787781</t>
   </si>
   <si>
-    <t xml:space="preserve">0.62368643283844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.624631404876709</t>
+    <t xml:space="preserve">0.623686373233795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.624631345272064</t>
   </si>
   <si>
     <t xml:space="preserve">0.632663667201996</t>
@@ -125,10 +125,10 @@
     <t xml:space="preserve">0.57596492767334</t>
   </si>
   <si>
-    <t xml:space="preserve">0.580689787864685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.598644375801086</t>
+    <t xml:space="preserve">0.58068984746933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.598644435405731</t>
   </si>
   <si>
     <t xml:space="preserve">0.606676757335663</t>
@@ -155,7 +155,7 @@
     <t xml:space="preserve">0.718184292316437</t>
   </si>
   <si>
-    <t xml:space="preserve">0.728106558322906</t>
+    <t xml:space="preserve">0.728106617927551</t>
   </si>
   <si>
     <t xml:space="preserve">0.713459372520447</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">0.729524075984955</t>
   </si>
   <si>
-    <t xml:space="preserve">0.737083852291107</t>
+    <t xml:space="preserve">0.737083911895752</t>
   </si>
   <si>
     <t xml:space="preserve">0.735666453838348</t>
@@ -173,40 +173,40 @@
     <t xml:space="preserve">0.7342489361763</t>
   </si>
   <si>
-    <t xml:space="preserve">0.759290933609009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.770158171653748</t>
+    <t xml:space="preserve">0.759290874004364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.770158112049103</t>
   </si>
   <si>
     <t xml:space="preserve">0.755983471870422</t>
   </si>
   <si>
-    <t xml:space="preserve">0.727161586284637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.699757158756256</t>
+    <t xml:space="preserve">0.727161645889282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.699757218360901</t>
   </si>
   <si>
     <t xml:space="preserve">0.701174676418304</t>
   </si>
   <si>
-    <t xml:space="preserve">0.708734452724457</t>
+    <t xml:space="preserve">0.708734512329102</t>
   </si>
   <si>
     <t xml:space="preserve">0.724799156188965</t>
   </si>
   <si>
-    <t xml:space="preserve">0.732358932495117</t>
+    <t xml:space="preserve">0.732358992099762</t>
   </si>
   <si>
     <t xml:space="preserve">0.732831478118896</t>
   </si>
   <si>
-    <t xml:space="preserve">0.735193967819214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.730469048023224</t>
+    <t xml:space="preserve">0.735193908214569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.730468988418579</t>
   </si>
   <si>
     <t xml:space="preserve">0.74369877576828</t>
@@ -215,16 +215,16 @@
     <t xml:space="preserve">0.727634072303772</t>
   </si>
   <si>
-    <t xml:space="preserve">0.72007429599762</t>
+    <t xml:space="preserve">0.720074236392975</t>
   </si>
   <si>
     <t xml:space="preserve">0.725744128227234</t>
   </si>
   <si>
-    <t xml:space="preserve">0.722909152507782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.725271642208099</t>
+    <t xml:space="preserve">0.722909212112427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.725271582603455</t>
   </si>
   <si>
     <t xml:space="preserve">0.723381698131561</t>
@@ -3111,6 +3111,9 @@
   </si>
   <si>
     <t xml:space="preserve">1.96000003814697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90499997138977</t>
   </si>
 </sst>
 </file>
@@ -59638,7 +59641,7 @@
     </row>
     <row r="2162">
       <c r="A2162" s="1" t="n">
-        <v>45471.6372453704</v>
+        <v>45471.2916666667</v>
       </c>
       <c r="B2162" t="n">
         <v>28824</v>
@@ -59659,6 +59662,32 @@
         <v>1032</v>
       </c>
       <c r="H2162" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2163">
+      <c r="A2163" s="1" t="n">
+        <v>45474.6276157407</v>
+      </c>
+      <c r="B2163" t="n">
+        <v>9989</v>
+      </c>
+      <c r="C2163" t="n">
+        <v>1.96000003814697</v>
+      </c>
+      <c r="D2163" t="n">
+        <v>1.77499997615814</v>
+      </c>
+      <c r="E2163" t="n">
+        <v>1.77499997615814</v>
+      </c>
+      <c r="F2163" t="n">
+        <v>1.90499997138977</v>
+      </c>
+      <c r="G2163" t="s">
+        <v>1033</v>
+      </c>
+      <c r="H2163" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/XPR.MI.xlsx
+++ b/data/XPR.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="1034">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="1035">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -50,7 +50,7 @@
     <t xml:space="preserve">0.699284732341766</t>
   </si>
   <si>
-    <t xml:space="preserve">0.687000036239624</t>
+    <t xml:space="preserve">0.686999976634979</t>
   </si>
   <si>
     <t xml:space="preserve">0.677550196647644</t>
@@ -59,13 +59,13 @@
     <t xml:space="preserve">0.683692574501038</t>
   </si>
   <si>
-    <t xml:space="preserve">0.685110032558441</t>
+    <t xml:space="preserve">0.685110092163086</t>
   </si>
   <si>
     <t xml:space="preserve">0.693614900112152</t>
   </si>
   <si>
-    <t xml:space="preserve">0.67613273859024</t>
+    <t xml:space="preserve">0.676132678985596</t>
   </si>
   <si>
     <t xml:space="preserve">0.649673283100128</t>
@@ -74,10 +74,10 @@
     <t xml:space="preserve">0.635026097297668</t>
   </si>
   <si>
-    <t xml:space="preserve">0.666210412979126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.660068094730377</t>
+    <t xml:space="preserve">0.666210472583771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.660068035125732</t>
   </si>
   <si>
     <t xml:space="preserve">0.65770560503006</t>
@@ -95,10 +95,10 @@
     <t xml:space="preserve">0.694087326526642</t>
   </si>
   <si>
-    <t xml:space="preserve">0.684165000915527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.679912626743317</t>
+    <t xml:space="preserve">0.684165060520172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.679912686347961</t>
   </si>
   <si>
     <t xml:space="preserve">0.67235279083252</t>
@@ -110,10 +110,10 @@
     <t xml:space="preserve">0.661485552787781</t>
   </si>
   <si>
-    <t xml:space="preserve">0.623686373233795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.624631345272064</t>
+    <t xml:space="preserve">0.62368643283844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.624631404876709</t>
   </si>
   <si>
     <t xml:space="preserve">0.632663667201996</t>
@@ -125,10 +125,10 @@
     <t xml:space="preserve">0.57596492767334</t>
   </si>
   <si>
-    <t xml:space="preserve">0.58068984746933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.598644435405731</t>
+    <t xml:space="preserve">0.580689787864685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.598644375801086</t>
   </si>
   <si>
     <t xml:space="preserve">0.606676757335663</t>
@@ -155,7 +155,7 @@
     <t xml:space="preserve">0.718184292316437</t>
   </si>
   <si>
-    <t xml:space="preserve">0.728106617927551</t>
+    <t xml:space="preserve">0.728106558322906</t>
   </si>
   <si>
     <t xml:space="preserve">0.713459372520447</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">0.729524075984955</t>
   </si>
   <si>
-    <t xml:space="preserve">0.737083911895752</t>
+    <t xml:space="preserve">0.737083852291107</t>
   </si>
   <si>
     <t xml:space="preserve">0.735666453838348</t>
@@ -173,40 +173,40 @@
     <t xml:space="preserve">0.7342489361763</t>
   </si>
   <si>
-    <t xml:space="preserve">0.759290874004364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.770158112049103</t>
+    <t xml:space="preserve">0.759290933609009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.770158171653748</t>
   </si>
   <si>
     <t xml:space="preserve">0.755983471870422</t>
   </si>
   <si>
-    <t xml:space="preserve">0.727161645889282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.699757218360901</t>
+    <t xml:space="preserve">0.727161586284637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.699757158756256</t>
   </si>
   <si>
     <t xml:space="preserve">0.701174676418304</t>
   </si>
   <si>
-    <t xml:space="preserve">0.708734512329102</t>
+    <t xml:space="preserve">0.708734452724457</t>
   </si>
   <si>
     <t xml:space="preserve">0.724799156188965</t>
   </si>
   <si>
-    <t xml:space="preserve">0.732358992099762</t>
+    <t xml:space="preserve">0.732358932495117</t>
   </si>
   <si>
     <t xml:space="preserve">0.732831478118896</t>
   </si>
   <si>
-    <t xml:space="preserve">0.735193908214569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.730468988418579</t>
+    <t xml:space="preserve">0.735193967819214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.730469048023224</t>
   </si>
   <si>
     <t xml:space="preserve">0.74369877576828</t>
@@ -215,16 +215,16 @@
     <t xml:space="preserve">0.727634072303772</t>
   </si>
   <si>
-    <t xml:space="preserve">0.720074236392975</t>
+    <t xml:space="preserve">0.72007429599762</t>
   </si>
   <si>
     <t xml:space="preserve">0.725744128227234</t>
   </si>
   <si>
-    <t xml:space="preserve">0.722909212112427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.725271582603455</t>
+    <t xml:space="preserve">0.722909152507782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.725271642208099</t>
   </si>
   <si>
     <t xml:space="preserve">0.723381698131561</t>
@@ -3114,6 +3114,9 @@
   </si>
   <si>
     <t xml:space="preserve">1.90499997138977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.875</t>
   </si>
 </sst>
 </file>
@@ -59667,7 +59670,7 @@
     </row>
     <row r="2163">
       <c r="A2163" s="1" t="n">
-        <v>45474.6276157407</v>
+        <v>45474.2916666667</v>
       </c>
       <c r="B2163" t="n">
         <v>9989</v>
@@ -59688,6 +59691,32 @@
         <v>1033</v>
       </c>
       <c r="H2163" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2164">
+      <c r="A2164" s="1" t="n">
+        <v>45475.5870023148</v>
+      </c>
+      <c r="B2164" t="n">
+        <v>960</v>
+      </c>
+      <c r="C2164" t="n">
+        <v>1.94000005722046</v>
+      </c>
+      <c r="D2164" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="E2164" t="n">
+        <v>1.90499997138977</v>
+      </c>
+      <c r="F2164" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="G2164" t="s">
+        <v>1034</v>
+      </c>
+      <c r="H2164" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/XPR.MI.xlsx
+++ b/data/XPR.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="1035">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="1036">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3117,6 +3117,9 @@
   </si>
   <si>
     <t xml:space="preserve">1.875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86500000953674</t>
   </si>
 </sst>
 </file>
@@ -59696,7 +59699,7 @@
     </row>
     <row r="2164">
       <c r="A2164" s="1" t="n">
-        <v>45475.5870023148</v>
+        <v>45475.2916666667</v>
       </c>
       <c r="B2164" t="n">
         <v>960</v>
@@ -59717,6 +59720,32 @@
         <v>1034</v>
       </c>
       <c r="H2164" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2165">
+      <c r="A2165" s="1" t="n">
+        <v>45476.649537037</v>
+      </c>
+      <c r="B2165" t="n">
+        <v>15968</v>
+      </c>
+      <c r="C2165" t="n">
+        <v>1.97500002384186</v>
+      </c>
+      <c r="D2165" t="n">
+        <v>1.87000000476837</v>
+      </c>
+      <c r="E2165" t="n">
+        <v>1.87000000476837</v>
+      </c>
+      <c r="F2165" t="n">
+        <v>1.86500000953674</v>
+      </c>
+      <c r="G2165" t="s">
+        <v>1035</v>
+      </c>
+      <c r="H2165" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/XPR.MI.xlsx
+++ b/data/XPR.MI.xlsx
@@ -50,7 +50,7 @@
     <t xml:space="preserve">0.699284732341766</t>
   </si>
   <si>
-    <t xml:space="preserve">0.686999976634979</t>
+    <t xml:space="preserve">0.687000036239624</t>
   </si>
   <si>
     <t xml:space="preserve">0.677550196647644</t>
@@ -59,13 +59,13 @@
     <t xml:space="preserve">0.683692574501038</t>
   </si>
   <si>
-    <t xml:space="preserve">0.685110092163086</t>
+    <t xml:space="preserve">0.685110032558441</t>
   </si>
   <si>
     <t xml:space="preserve">0.693614900112152</t>
   </si>
   <si>
-    <t xml:space="preserve">0.676132678985596</t>
+    <t xml:space="preserve">0.67613273859024</t>
   </si>
   <si>
     <t xml:space="preserve">0.649673283100128</t>
@@ -74,10 +74,10 @@
     <t xml:space="preserve">0.635026097297668</t>
   </si>
   <si>
-    <t xml:space="preserve">0.666210472583771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.660068035125732</t>
+    <t xml:space="preserve">0.666210412979126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.660068094730377</t>
   </si>
   <si>
     <t xml:space="preserve">0.65770560503006</t>
@@ -95,10 +95,10 @@
     <t xml:space="preserve">0.694087326526642</t>
   </si>
   <si>
-    <t xml:space="preserve">0.684165060520172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.679912686347961</t>
+    <t xml:space="preserve">0.684165000915527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.679912626743317</t>
   </si>
   <si>
     <t xml:space="preserve">0.67235279083252</t>
@@ -110,10 +110,10 @@
     <t xml:space="preserve">0.661485552787781</t>
   </si>
   <si>
-    <t xml:space="preserve">0.62368643283844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.624631404876709</t>
+    <t xml:space="preserve">0.623686373233795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.624631345272064</t>
   </si>
   <si>
     <t xml:space="preserve">0.632663667201996</t>
@@ -125,10 +125,10 @@
     <t xml:space="preserve">0.57596492767334</t>
   </si>
   <si>
-    <t xml:space="preserve">0.580689787864685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.598644375801086</t>
+    <t xml:space="preserve">0.58068984746933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.598644435405731</t>
   </si>
   <si>
     <t xml:space="preserve">0.606676757335663</t>
@@ -155,7 +155,7 @@
     <t xml:space="preserve">0.718184292316437</t>
   </si>
   <si>
-    <t xml:space="preserve">0.728106558322906</t>
+    <t xml:space="preserve">0.728106617927551</t>
   </si>
   <si>
     <t xml:space="preserve">0.713459372520447</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">0.729524075984955</t>
   </si>
   <si>
-    <t xml:space="preserve">0.737083852291107</t>
+    <t xml:space="preserve">0.737083911895752</t>
   </si>
   <si>
     <t xml:space="preserve">0.735666453838348</t>
@@ -173,40 +173,40 @@
     <t xml:space="preserve">0.7342489361763</t>
   </si>
   <si>
-    <t xml:space="preserve">0.759290933609009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.770158171653748</t>
+    <t xml:space="preserve">0.759290874004364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.770158112049103</t>
   </si>
   <si>
     <t xml:space="preserve">0.755983471870422</t>
   </si>
   <si>
-    <t xml:space="preserve">0.727161586284637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.699757158756256</t>
+    <t xml:space="preserve">0.727161645889282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.699757218360901</t>
   </si>
   <si>
     <t xml:space="preserve">0.701174676418304</t>
   </si>
   <si>
-    <t xml:space="preserve">0.708734452724457</t>
+    <t xml:space="preserve">0.708734512329102</t>
   </si>
   <si>
     <t xml:space="preserve">0.724799156188965</t>
   </si>
   <si>
-    <t xml:space="preserve">0.732358932495117</t>
+    <t xml:space="preserve">0.732358992099762</t>
   </si>
   <si>
     <t xml:space="preserve">0.732831478118896</t>
   </si>
   <si>
-    <t xml:space="preserve">0.735193967819214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.730469048023224</t>
+    <t xml:space="preserve">0.735193908214569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.730468988418579</t>
   </si>
   <si>
     <t xml:space="preserve">0.74369877576828</t>
@@ -215,16 +215,16 @@
     <t xml:space="preserve">0.727634072303772</t>
   </si>
   <si>
-    <t xml:space="preserve">0.72007429599762</t>
+    <t xml:space="preserve">0.720074236392975</t>
   </si>
   <si>
     <t xml:space="preserve">0.725744128227234</t>
   </si>
   <si>
-    <t xml:space="preserve">0.722909152507782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.725271642208099</t>
+    <t xml:space="preserve">0.722909212112427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.725271582603455</t>
   </si>
   <si>
     <t xml:space="preserve">0.723381698131561</t>
@@ -59725,7 +59725,7 @@
     </row>
     <row r="2165">
       <c r="A2165" s="1" t="n">
-        <v>45476.649537037</v>
+        <v>45476.2916666667</v>
       </c>
       <c r="B2165" t="n">
         <v>15968</v>
@@ -59734,7 +59734,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="D2165" t="n">
-        <v>1.87000000476837</v>
+        <v>1.86500000953674</v>
       </c>
       <c r="E2165" t="n">
         <v>1.87000000476837</v>
@@ -59746,6 +59746,32 @@
         <v>1035</v>
       </c>
       <c r="H2165" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2166">
+      <c r="A2166" s="1" t="n">
+        <v>45477.6450347222</v>
+      </c>
+      <c r="B2166" t="n">
+        <v>21415</v>
+      </c>
+      <c r="C2166" t="n">
+        <v>1.87999999523163</v>
+      </c>
+      <c r="D2166" t="n">
+        <v>1.86000001430511</v>
+      </c>
+      <c r="E2166" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="F2166" t="n">
+        <v>1.86000001430511</v>
+      </c>
+      <c r="G2166" t="s">
+        <v>829</v>
+      </c>
+      <c r="H2166" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/XPR.MI.xlsx
+++ b/data/XPR.MI.xlsx
@@ -59751,7 +59751,7 @@
     </row>
     <row r="2166">
       <c r="A2166" s="1" t="n">
-        <v>45477.6450347222</v>
+        <v>45477.2916666667</v>
       </c>
       <c r="B2166" t="n">
         <v>21415</v>
@@ -59772,6 +59772,32 @@
         <v>829</v>
       </c>
       <c r="H2166" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2167">
+      <c r="A2167" s="1" t="n">
+        <v>45478.550775463</v>
+      </c>
+      <c r="B2167" t="n">
+        <v>5715</v>
+      </c>
+      <c r="C2167" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="D2167" t="n">
+        <v>1.86000001430511</v>
+      </c>
+      <c r="E2167" t="n">
+        <v>1.86000001430511</v>
+      </c>
+      <c r="F2167" t="n">
+        <v>1.87000000476837</v>
+      </c>
+      <c r="G2167" t="s">
+        <v>832</v>
+      </c>
+      <c r="H2167" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/XPR.MI.xlsx
+++ b/data/XPR.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="1036">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="1037">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3120,6 +3120,9 @@
   </si>
   <si>
     <t xml:space="preserve">1.86500000953674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05999994277954</t>
   </si>
 </sst>
 </file>
@@ -59777,7 +59780,7 @@
     </row>
     <row r="2167">
       <c r="A2167" s="1" t="n">
-        <v>45478.550775463</v>
+        <v>45478.2916666667</v>
       </c>
       <c r="B2167" t="n">
         <v>5715</v>
@@ -59798,6 +59801,32 @@
         <v>832</v>
       </c>
       <c r="H2167" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2168">
+      <c r="A2168" s="1" t="n">
+        <v>45481.6516782407</v>
+      </c>
+      <c r="B2168" t="n">
+        <v>45409</v>
+      </c>
+      <c r="C2168" t="n">
+        <v>2.03999996185303</v>
+      </c>
+      <c r="D2168" t="n">
+        <v>1.85000002384186</v>
+      </c>
+      <c r="E2168" t="n">
+        <v>1.85000002384186</v>
+      </c>
+      <c r="F2168" t="n">
+        <v>2.05999994277954</v>
+      </c>
+      <c r="G2168" t="s">
+        <v>1036</v>
+      </c>
+      <c r="H2168" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/XPR.MI.xlsx
+++ b/data/XPR.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="1037">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="1038">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3123,6 +3123,9 @@
   </si>
   <si>
     <t xml:space="preserve">2.05999994277954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
   </si>
 </sst>
 </file>
@@ -59806,13 +59809,13 @@
     </row>
     <row r="2168">
       <c r="A2168" s="1" t="n">
-        <v>45481.6516782407</v>
+        <v>45481.2916666667</v>
       </c>
       <c r="B2168" t="n">
         <v>45409</v>
       </c>
       <c r="C2168" t="n">
-        <v>2.03999996185303</v>
+        <v>2.05999994277954</v>
       </c>
       <c r="D2168" t="n">
         <v>1.85000002384186</v>
@@ -59827,6 +59830,32 @@
         <v>1036</v>
       </c>
       <c r="H2168" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2169">
+      <c r="A2169" s="1" t="n">
+        <v>45482.6495486111</v>
+      </c>
+      <c r="B2169" t="n">
+        <v>25147</v>
+      </c>
+      <c r="C2169" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2169" t="n">
+        <v>1.91999995708466</v>
+      </c>
+      <c r="E2169" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2169" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2169" t="s">
+        <v>1037</v>
+      </c>
+      <c r="H2169" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/XPR.MI.xlsx
+++ b/data/XPR.MI.xlsx
@@ -59835,13 +59835,13 @@
     </row>
     <row r="2169">
       <c r="A2169" s="1" t="n">
-        <v>45482.6495486111</v>
+        <v>45482.2916666667</v>
       </c>
       <c r="B2169" t="n">
         <v>25147</v>
       </c>
       <c r="C2169" t="n">
-        <v>2</v>
+        <v>2.07999992370605</v>
       </c>
       <c r="D2169" t="n">
         <v>1.91999995708466</v>
@@ -59856,6 +59856,32 @@
         <v>1037</v>
       </c>
       <c r="H2169" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2170">
+      <c r="A2170" s="1" t="n">
+        <v>45483.6493171296</v>
+      </c>
+      <c r="B2170" t="n">
+        <v>3043</v>
+      </c>
+      <c r="C2170" t="n">
+        <v>1.90499997138977</v>
+      </c>
+      <c r="D2170" t="n">
+        <v>1.89999997615814</v>
+      </c>
+      <c r="E2170" t="n">
+        <v>1.90499997138977</v>
+      </c>
+      <c r="F2170" t="n">
+        <v>1.89999997615814</v>
+      </c>
+      <c r="G2170" t="s">
+        <v>1031</v>
+      </c>
+      <c r="H2170" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/XPR.MI.xlsx
+++ b/data/XPR.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="1038">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="1039">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -50,7 +50,7 @@
     <t xml:space="preserve">0.699284732341766</t>
   </si>
   <si>
-    <t xml:space="preserve">0.687000036239624</t>
+    <t xml:space="preserve">0.686999976634979</t>
   </si>
   <si>
     <t xml:space="preserve">0.677550196647644</t>
@@ -59,13 +59,13 @@
     <t xml:space="preserve">0.683692574501038</t>
   </si>
   <si>
-    <t xml:space="preserve">0.685110032558441</t>
+    <t xml:space="preserve">0.685110092163086</t>
   </si>
   <si>
     <t xml:space="preserve">0.693614900112152</t>
   </si>
   <si>
-    <t xml:space="preserve">0.67613273859024</t>
+    <t xml:space="preserve">0.676132678985596</t>
   </si>
   <si>
     <t xml:space="preserve">0.649673283100128</t>
@@ -74,10 +74,10 @@
     <t xml:space="preserve">0.635026097297668</t>
   </si>
   <si>
-    <t xml:space="preserve">0.666210412979126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.660068094730377</t>
+    <t xml:space="preserve">0.666210472583771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.660068035125732</t>
   </si>
   <si>
     <t xml:space="preserve">0.65770560503006</t>
@@ -95,10 +95,10 @@
     <t xml:space="preserve">0.694087326526642</t>
   </si>
   <si>
-    <t xml:space="preserve">0.684165000915527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.679912626743317</t>
+    <t xml:space="preserve">0.684165060520172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.679912686347961</t>
   </si>
   <si>
     <t xml:space="preserve">0.67235279083252</t>
@@ -110,10 +110,10 @@
     <t xml:space="preserve">0.661485552787781</t>
   </si>
   <si>
-    <t xml:space="preserve">0.623686373233795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.624631345272064</t>
+    <t xml:space="preserve">0.62368643283844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.624631404876709</t>
   </si>
   <si>
     <t xml:space="preserve">0.632663667201996</t>
@@ -125,10 +125,10 @@
     <t xml:space="preserve">0.57596492767334</t>
   </si>
   <si>
-    <t xml:space="preserve">0.58068984746933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.598644435405731</t>
+    <t xml:space="preserve">0.580689787864685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.598644375801086</t>
   </si>
   <si>
     <t xml:space="preserve">0.606676757335663</t>
@@ -155,7 +155,7 @@
     <t xml:space="preserve">0.718184292316437</t>
   </si>
   <si>
-    <t xml:space="preserve">0.728106617927551</t>
+    <t xml:space="preserve">0.728106558322906</t>
   </si>
   <si>
     <t xml:space="preserve">0.713459372520447</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">0.729524075984955</t>
   </si>
   <si>
-    <t xml:space="preserve">0.737083911895752</t>
+    <t xml:space="preserve">0.737083852291107</t>
   </si>
   <si>
     <t xml:space="preserve">0.735666453838348</t>
@@ -173,40 +173,40 @@
     <t xml:space="preserve">0.7342489361763</t>
   </si>
   <si>
-    <t xml:space="preserve">0.759290874004364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.770158112049103</t>
+    <t xml:space="preserve">0.759290933609009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.770158171653748</t>
   </si>
   <si>
     <t xml:space="preserve">0.755983471870422</t>
   </si>
   <si>
-    <t xml:space="preserve">0.727161645889282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.699757218360901</t>
+    <t xml:space="preserve">0.727161586284637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.699757158756256</t>
   </si>
   <si>
     <t xml:space="preserve">0.701174676418304</t>
   </si>
   <si>
-    <t xml:space="preserve">0.708734512329102</t>
+    <t xml:space="preserve">0.708734452724457</t>
   </si>
   <si>
     <t xml:space="preserve">0.724799156188965</t>
   </si>
   <si>
-    <t xml:space="preserve">0.732358992099762</t>
+    <t xml:space="preserve">0.732358932495117</t>
   </si>
   <si>
     <t xml:space="preserve">0.732831478118896</t>
   </si>
   <si>
-    <t xml:space="preserve">0.735193908214569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.730468988418579</t>
+    <t xml:space="preserve">0.735193967819214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.730469048023224</t>
   </si>
   <si>
     <t xml:space="preserve">0.74369877576828</t>
@@ -215,16 +215,16 @@
     <t xml:space="preserve">0.727634072303772</t>
   </si>
   <si>
-    <t xml:space="preserve">0.720074236392975</t>
+    <t xml:space="preserve">0.72007429599762</t>
   </si>
   <si>
     <t xml:space="preserve">0.725744128227234</t>
   </si>
   <si>
-    <t xml:space="preserve">0.722909212112427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.725271582603455</t>
+    <t xml:space="preserve">0.722909152507782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.725271642208099</t>
   </si>
   <si>
     <t xml:space="preserve">0.723381698131561</t>
@@ -3126,6 +3126,9 @@
   </si>
   <si>
     <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80999994277954</t>
   </si>
 </sst>
 </file>
@@ -59861,7 +59864,7 @@
     </row>
     <row r="2170">
       <c r="A2170" s="1" t="n">
-        <v>45483.6493171296</v>
+        <v>45483.2916666667</v>
       </c>
       <c r="B2170" t="n">
         <v>3043</v>
@@ -59882,6 +59885,32 @@
         <v>1031</v>
       </c>
       <c r="H2170" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2171">
+      <c r="A2171" s="1" t="n">
+        <v>45484.6495949074</v>
+      </c>
+      <c r="B2171" t="n">
+        <v>13384</v>
+      </c>
+      <c r="C2171" t="n">
+        <v>1.94000005722046</v>
+      </c>
+      <c r="D2171" t="n">
+        <v>1.80499994754791</v>
+      </c>
+      <c r="E2171" t="n">
+        <v>1.85000002384186</v>
+      </c>
+      <c r="F2171" t="n">
+        <v>1.80999994277954</v>
+      </c>
+      <c r="G2171" t="s">
+        <v>1038</v>
+      </c>
+      <c r="H2171" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/XPR.MI.xlsx
+++ b/data/XPR.MI.xlsx
@@ -50,7 +50,7 @@
     <t xml:space="preserve">0.699284732341766</t>
   </si>
   <si>
-    <t xml:space="preserve">0.686999976634979</t>
+    <t xml:space="preserve">0.687000036239624</t>
   </si>
   <si>
     <t xml:space="preserve">0.677550196647644</t>
@@ -59,13 +59,13 @@
     <t xml:space="preserve">0.683692574501038</t>
   </si>
   <si>
-    <t xml:space="preserve">0.685110092163086</t>
+    <t xml:space="preserve">0.685110032558441</t>
   </si>
   <si>
     <t xml:space="preserve">0.693614900112152</t>
   </si>
   <si>
-    <t xml:space="preserve">0.676132678985596</t>
+    <t xml:space="preserve">0.67613273859024</t>
   </si>
   <si>
     <t xml:space="preserve">0.649673283100128</t>
@@ -74,10 +74,10 @@
     <t xml:space="preserve">0.635026097297668</t>
   </si>
   <si>
-    <t xml:space="preserve">0.666210472583771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.660068035125732</t>
+    <t xml:space="preserve">0.666210412979126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.660068094730377</t>
   </si>
   <si>
     <t xml:space="preserve">0.65770560503006</t>
@@ -95,10 +95,10 @@
     <t xml:space="preserve">0.694087326526642</t>
   </si>
   <si>
-    <t xml:space="preserve">0.684165060520172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.679912686347961</t>
+    <t xml:space="preserve">0.684165000915527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.679912626743317</t>
   </si>
   <si>
     <t xml:space="preserve">0.67235279083252</t>
@@ -110,10 +110,10 @@
     <t xml:space="preserve">0.661485552787781</t>
   </si>
   <si>
-    <t xml:space="preserve">0.62368643283844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.624631404876709</t>
+    <t xml:space="preserve">0.623686373233795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.624631345272064</t>
   </si>
   <si>
     <t xml:space="preserve">0.632663667201996</t>
@@ -125,10 +125,10 @@
     <t xml:space="preserve">0.57596492767334</t>
   </si>
   <si>
-    <t xml:space="preserve">0.580689787864685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.598644375801086</t>
+    <t xml:space="preserve">0.58068984746933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.598644435405731</t>
   </si>
   <si>
     <t xml:space="preserve">0.606676757335663</t>
@@ -155,7 +155,7 @@
     <t xml:space="preserve">0.718184292316437</t>
   </si>
   <si>
-    <t xml:space="preserve">0.728106558322906</t>
+    <t xml:space="preserve">0.728106617927551</t>
   </si>
   <si>
     <t xml:space="preserve">0.713459372520447</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">0.729524075984955</t>
   </si>
   <si>
-    <t xml:space="preserve">0.737083852291107</t>
+    <t xml:space="preserve">0.737083911895752</t>
   </si>
   <si>
     <t xml:space="preserve">0.735666453838348</t>
@@ -173,40 +173,40 @@
     <t xml:space="preserve">0.7342489361763</t>
   </si>
   <si>
-    <t xml:space="preserve">0.759290933609009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.770158171653748</t>
+    <t xml:space="preserve">0.759290874004364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.770158112049103</t>
   </si>
   <si>
     <t xml:space="preserve">0.755983471870422</t>
   </si>
   <si>
-    <t xml:space="preserve">0.727161586284637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.699757158756256</t>
+    <t xml:space="preserve">0.727161645889282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.699757218360901</t>
   </si>
   <si>
     <t xml:space="preserve">0.701174676418304</t>
   </si>
   <si>
-    <t xml:space="preserve">0.708734452724457</t>
+    <t xml:space="preserve">0.708734512329102</t>
   </si>
   <si>
     <t xml:space="preserve">0.724799156188965</t>
   </si>
   <si>
-    <t xml:space="preserve">0.732358932495117</t>
+    <t xml:space="preserve">0.732358992099762</t>
   </si>
   <si>
     <t xml:space="preserve">0.732831478118896</t>
   </si>
   <si>
-    <t xml:space="preserve">0.735193967819214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.730469048023224</t>
+    <t xml:space="preserve">0.735193908214569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.730468988418579</t>
   </si>
   <si>
     <t xml:space="preserve">0.74369877576828</t>
@@ -215,16 +215,16 @@
     <t xml:space="preserve">0.727634072303772</t>
   </si>
   <si>
-    <t xml:space="preserve">0.72007429599762</t>
+    <t xml:space="preserve">0.720074236392975</t>
   </si>
   <si>
     <t xml:space="preserve">0.725744128227234</t>
   </si>
   <si>
-    <t xml:space="preserve">0.722909152507782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.725271642208099</t>
+    <t xml:space="preserve">0.722909212112427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.725271582603455</t>
   </si>
   <si>
     <t xml:space="preserve">0.723381698131561</t>
@@ -59890,7 +59890,7 @@
     </row>
     <row r="2171">
       <c r="A2171" s="1" t="n">
-        <v>45484.6495949074</v>
+        <v>45484.2916666667</v>
       </c>
       <c r="B2171" t="n">
         <v>13384</v>
@@ -59911,6 +59911,32 @@
         <v>1038</v>
       </c>
       <c r="H2171" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2172">
+      <c r="A2172" s="1" t="n">
+        <v>45485.649525463</v>
+      </c>
+      <c r="B2172" t="n">
+        <v>41788</v>
+      </c>
+      <c r="C2172" t="n">
+        <v>1.83000004291534</v>
+      </c>
+      <c r="D2172" t="n">
+        <v>1.72500002384186</v>
+      </c>
+      <c r="E2172" t="n">
+        <v>1.83000004291534</v>
+      </c>
+      <c r="F2172" t="n">
+        <v>1.72500002384186</v>
+      </c>
+      <c r="G2172" t="s">
+        <v>1021</v>
+      </c>
+      <c r="H2172" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/XPR.MI.xlsx
+++ b/data/XPR.MI.xlsx
@@ -59916,7 +59916,7 @@
     </row>
     <row r="2172">
       <c r="A2172" s="1" t="n">
-        <v>45485.649525463</v>
+        <v>45485.2916666667</v>
       </c>
       <c r="B2172" t="n">
         <v>41788</v>
@@ -59937,6 +59937,32 @@
         <v>1021</v>
       </c>
       <c r="H2172" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2173">
+      <c r="A2173" s="1" t="n">
+        <v>45488.6377430556</v>
+      </c>
+      <c r="B2173" t="n">
+        <v>85430</v>
+      </c>
+      <c r="C2173" t="n">
+        <v>1.77999997138977</v>
+      </c>
+      <c r="D2173" t="n">
+        <v>1.64999997615814</v>
+      </c>
+      <c r="E2173" t="n">
+        <v>1.77999997138977</v>
+      </c>
+      <c r="F2173" t="n">
+        <v>1.73000001907349</v>
+      </c>
+      <c r="G2173" t="s">
+        <v>851</v>
+      </c>
+      <c r="H2173" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/XPR.MI.xlsx
+++ b/data/XPR.MI.xlsx
@@ -59942,7 +59942,7 @@
     </row>
     <row r="2173">
       <c r="A2173" s="1" t="n">
-        <v>45488.6377430556</v>
+        <v>45488.2916666667</v>
       </c>
       <c r="B2173" t="n">
         <v>85430</v>
@@ -59963,6 +59963,32 @@
         <v>851</v>
       </c>
       <c r="H2173" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2174">
+      <c r="A2174" s="1" t="n">
+        <v>45489.6495833333</v>
+      </c>
+      <c r="B2174" t="n">
+        <v>443333</v>
+      </c>
+      <c r="C2174" t="n">
+        <v>1.60000002384186</v>
+      </c>
+      <c r="D2174" t="n">
+        <v>1.48500001430511</v>
+      </c>
+      <c r="E2174" t="n">
+        <v>1.52499997615814</v>
+      </c>
+      <c r="F2174" t="n">
+        <v>1.51999998092651</v>
+      </c>
+      <c r="G2174" t="s">
+        <v>954</v>
+      </c>
+      <c r="H2174" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/XPR.MI.xlsx
+++ b/data/XPR.MI.xlsx
@@ -50,7 +50,7 @@
     <t xml:space="preserve">0.699284732341766</t>
   </si>
   <si>
-    <t xml:space="preserve">0.687000036239624</t>
+    <t xml:space="preserve">0.686999976634979</t>
   </si>
   <si>
     <t xml:space="preserve">0.677550196647644</t>
@@ -59,13 +59,13 @@
     <t xml:space="preserve">0.683692574501038</t>
   </si>
   <si>
-    <t xml:space="preserve">0.685110032558441</t>
+    <t xml:space="preserve">0.685110092163086</t>
   </si>
   <si>
     <t xml:space="preserve">0.693614900112152</t>
   </si>
   <si>
-    <t xml:space="preserve">0.67613273859024</t>
+    <t xml:space="preserve">0.676132678985596</t>
   </si>
   <si>
     <t xml:space="preserve">0.649673283100128</t>
@@ -74,10 +74,10 @@
     <t xml:space="preserve">0.635026097297668</t>
   </si>
   <si>
-    <t xml:space="preserve">0.666210412979126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.660068094730377</t>
+    <t xml:space="preserve">0.666210472583771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.660068035125732</t>
   </si>
   <si>
     <t xml:space="preserve">0.65770560503006</t>
@@ -95,10 +95,10 @@
     <t xml:space="preserve">0.694087326526642</t>
   </si>
   <si>
-    <t xml:space="preserve">0.684165000915527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.679912626743317</t>
+    <t xml:space="preserve">0.684165060520172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.679912686347961</t>
   </si>
   <si>
     <t xml:space="preserve">0.67235279083252</t>
@@ -110,10 +110,10 @@
     <t xml:space="preserve">0.661485552787781</t>
   </si>
   <si>
-    <t xml:space="preserve">0.623686373233795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.624631345272064</t>
+    <t xml:space="preserve">0.62368643283844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.624631404876709</t>
   </si>
   <si>
     <t xml:space="preserve">0.632663667201996</t>
@@ -125,10 +125,10 @@
     <t xml:space="preserve">0.57596492767334</t>
   </si>
   <si>
-    <t xml:space="preserve">0.58068984746933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.598644435405731</t>
+    <t xml:space="preserve">0.580689787864685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.598644375801086</t>
   </si>
   <si>
     <t xml:space="preserve">0.606676757335663</t>
@@ -155,7 +155,7 @@
     <t xml:space="preserve">0.718184292316437</t>
   </si>
   <si>
-    <t xml:space="preserve">0.728106617927551</t>
+    <t xml:space="preserve">0.728106558322906</t>
   </si>
   <si>
     <t xml:space="preserve">0.713459372520447</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">0.729524075984955</t>
   </si>
   <si>
-    <t xml:space="preserve">0.737083911895752</t>
+    <t xml:space="preserve">0.737083852291107</t>
   </si>
   <si>
     <t xml:space="preserve">0.735666453838348</t>
@@ -173,40 +173,40 @@
     <t xml:space="preserve">0.7342489361763</t>
   </si>
   <si>
-    <t xml:space="preserve">0.759290874004364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.770158112049103</t>
+    <t xml:space="preserve">0.759290933609009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.770158171653748</t>
   </si>
   <si>
     <t xml:space="preserve">0.755983471870422</t>
   </si>
   <si>
-    <t xml:space="preserve">0.727161645889282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.699757218360901</t>
+    <t xml:space="preserve">0.727161586284637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.699757158756256</t>
   </si>
   <si>
     <t xml:space="preserve">0.701174676418304</t>
   </si>
   <si>
-    <t xml:space="preserve">0.708734512329102</t>
+    <t xml:space="preserve">0.708734452724457</t>
   </si>
   <si>
     <t xml:space="preserve">0.724799156188965</t>
   </si>
   <si>
-    <t xml:space="preserve">0.732358992099762</t>
+    <t xml:space="preserve">0.732358932495117</t>
   </si>
   <si>
     <t xml:space="preserve">0.732831478118896</t>
   </si>
   <si>
-    <t xml:space="preserve">0.735193908214569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.730468988418579</t>
+    <t xml:space="preserve">0.735193967819214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.730469048023224</t>
   </si>
   <si>
     <t xml:space="preserve">0.74369877576828</t>
@@ -215,16 +215,16 @@
     <t xml:space="preserve">0.727634072303772</t>
   </si>
   <si>
-    <t xml:space="preserve">0.720074236392975</t>
+    <t xml:space="preserve">0.72007429599762</t>
   </si>
   <si>
     <t xml:space="preserve">0.725744128227234</t>
   </si>
   <si>
-    <t xml:space="preserve">0.722909212112427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.725271582603455</t>
+    <t xml:space="preserve">0.722909152507782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.725271642208099</t>
   </si>
   <si>
     <t xml:space="preserve">0.723381698131561</t>
@@ -59968,7 +59968,7 @@
     </row>
     <row r="2174">
       <c r="A2174" s="1" t="n">
-        <v>45489.6495833333</v>
+        <v>45489.2916666667</v>
       </c>
       <c r="B2174" t="n">
         <v>443333</v>

--- a/data/XPR.MI.xlsx
+++ b/data/XPR.MI.xlsx
@@ -50,7 +50,7 @@
     <t xml:space="preserve">0.699284732341766</t>
   </si>
   <si>
-    <t xml:space="preserve">0.686999976634979</t>
+    <t xml:space="preserve">0.687000036239624</t>
   </si>
   <si>
     <t xml:space="preserve">0.677550196647644</t>
@@ -59,13 +59,13 @@
     <t xml:space="preserve">0.683692574501038</t>
   </si>
   <si>
-    <t xml:space="preserve">0.685110092163086</t>
+    <t xml:space="preserve">0.685110032558441</t>
   </si>
   <si>
     <t xml:space="preserve">0.693614900112152</t>
   </si>
   <si>
-    <t xml:space="preserve">0.676132678985596</t>
+    <t xml:space="preserve">0.67613273859024</t>
   </si>
   <si>
     <t xml:space="preserve">0.649673283100128</t>
@@ -74,10 +74,10 @@
     <t xml:space="preserve">0.635026097297668</t>
   </si>
   <si>
-    <t xml:space="preserve">0.666210472583771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.660068035125732</t>
+    <t xml:space="preserve">0.666210412979126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.660068094730377</t>
   </si>
   <si>
     <t xml:space="preserve">0.65770560503006</t>
@@ -95,10 +95,10 @@
     <t xml:space="preserve">0.694087326526642</t>
   </si>
   <si>
-    <t xml:space="preserve">0.684165060520172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.679912686347961</t>
+    <t xml:space="preserve">0.684165000915527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.679912626743317</t>
   </si>
   <si>
     <t xml:space="preserve">0.67235279083252</t>
@@ -110,10 +110,10 @@
     <t xml:space="preserve">0.661485552787781</t>
   </si>
   <si>
-    <t xml:space="preserve">0.62368643283844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.624631404876709</t>
+    <t xml:space="preserve">0.623686373233795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.624631345272064</t>
   </si>
   <si>
     <t xml:space="preserve">0.632663667201996</t>
@@ -125,10 +125,10 @@
     <t xml:space="preserve">0.57596492767334</t>
   </si>
   <si>
-    <t xml:space="preserve">0.580689787864685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.598644375801086</t>
+    <t xml:space="preserve">0.58068984746933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.598644435405731</t>
   </si>
   <si>
     <t xml:space="preserve">0.606676757335663</t>
@@ -155,7 +155,7 @@
     <t xml:space="preserve">0.718184292316437</t>
   </si>
   <si>
-    <t xml:space="preserve">0.728106558322906</t>
+    <t xml:space="preserve">0.728106617927551</t>
   </si>
   <si>
     <t xml:space="preserve">0.713459372520447</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">0.729524075984955</t>
   </si>
   <si>
-    <t xml:space="preserve">0.737083852291107</t>
+    <t xml:space="preserve">0.737083911895752</t>
   </si>
   <si>
     <t xml:space="preserve">0.735666453838348</t>
@@ -173,40 +173,40 @@
     <t xml:space="preserve">0.7342489361763</t>
   </si>
   <si>
-    <t xml:space="preserve">0.759290933609009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.770158171653748</t>
+    <t xml:space="preserve">0.759290874004364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.770158112049103</t>
   </si>
   <si>
     <t xml:space="preserve">0.755983471870422</t>
   </si>
   <si>
-    <t xml:space="preserve">0.727161586284637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.699757158756256</t>
+    <t xml:space="preserve">0.727161645889282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.699757218360901</t>
   </si>
   <si>
     <t xml:space="preserve">0.701174676418304</t>
   </si>
   <si>
-    <t xml:space="preserve">0.708734452724457</t>
+    <t xml:space="preserve">0.708734512329102</t>
   </si>
   <si>
     <t xml:space="preserve">0.724799156188965</t>
   </si>
   <si>
-    <t xml:space="preserve">0.732358932495117</t>
+    <t xml:space="preserve">0.732358992099762</t>
   </si>
   <si>
     <t xml:space="preserve">0.732831478118896</t>
   </si>
   <si>
-    <t xml:space="preserve">0.735193967819214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.730469048023224</t>
+    <t xml:space="preserve">0.735193908214569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.730468988418579</t>
   </si>
   <si>
     <t xml:space="preserve">0.74369877576828</t>
@@ -215,16 +215,16 @@
     <t xml:space="preserve">0.727634072303772</t>
   </si>
   <si>
-    <t xml:space="preserve">0.72007429599762</t>
+    <t xml:space="preserve">0.720074236392975</t>
   </si>
   <si>
     <t xml:space="preserve">0.725744128227234</t>
   </si>
   <si>
-    <t xml:space="preserve">0.722909152507782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.725271642208099</t>
+    <t xml:space="preserve">0.722909212112427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.725271582603455</t>
   </si>
   <si>
     <t xml:space="preserve">0.723381698131561</t>
